--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_22_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_22_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1043405.503661911</v>
+        <v>1039249.013176856</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33936285.47690616</v>
+        <v>33936285.47690617</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6507879.333115958</v>
+        <v>6507879.333115957</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4052791.339734217</v>
+        <v>4052791.339734216</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.4476524459058</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>266.4097384417204</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>38.69418351668037</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4751836067882</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>216.5016234790147</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>161.8937649610556</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>43.5784054279991</v>
+        <v>43.57840542799911</v>
       </c>
       <c r="T12" t="n">
         <v>124.7012168429747</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>131.8020382022209</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1548,7 +1548,7 @@
         <v>130.781282966242</v>
       </c>
       <c r="I13" t="n">
-        <v>61.65479693373585</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.5131431297577</v>
       </c>
       <c r="T13" t="n">
-        <v>239.7097330287659</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>275.6012973062951</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>4.794311509710937</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>408.8001170621988</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.4476524459058</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>32.37177824216434</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.4751836067882</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>43.5784054279991</v>
+        <v>43.57840542799911</v>
       </c>
       <c r="T15" t="n">
         <v>124.7012168429747</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>145.5725271328856</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1779,10 +1779,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.066849283703</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>130.781282966242</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.5131431297577</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>239.7097330287659</v>
@@ -1824,10 +1824,10 @@
         <v>275.6012973062951</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>242.5939697890001</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1846,22 +1846,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>320.1026705102755</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>380.0555529253379</v>
       </c>
       <c r="G17" t="n">
-        <v>395.4476524459058</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>266.4097384417204</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.3908366544989</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4751836067882</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>41.14034759000236</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.5131431297577</v>
+        <v>122.7272296112188</v>
       </c>
       <c r="T19" t="n">
         <v>239.7097330287659</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2089,13 +2089,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>124.5470838139745</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>38.69418351668037</v>
       </c>
       <c r="T20" t="n">
-        <v>209.3908366544989</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>184.1823525554938</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>43.5784054279991</v>
+        <v>43.57840542799911</v>
       </c>
       <c r="T21" t="n">
         <v>124.7012168429747</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2256,7 +2256,7 @@
         <v>163.066849283703</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>130.781282966242</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>70.80584494504961</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>112.1326313697151</v>
       </c>
     </row>
     <row r="23">
@@ -2332,7 +2332,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.4476524459058</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>266.4097384417204</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>38.69418351668037</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.3908366544989</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>157.7657767532888</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.6064069419064</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>43.5784054279991</v>
+        <v>43.57840542799911</v>
       </c>
       <c r="T24" t="n">
         <v>124.7012168429747</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>57.54942694949829</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2493,10 +2493,10 @@
         <v>163.066849283703</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>130.781282966242</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>61.65479693373586</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>275.6012973062951</v>
       </c>
       <c r="V25" t="n">
-        <v>126.9144099073367</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>218.6153130630267</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.4476524459058</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>266.4097384417204</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>38.69418351668037</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4751836067882</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>169.8556966434713</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>43.5784054279991</v>
+        <v>43.57840542799911</v>
       </c>
       <c r="T27" t="n">
         <v>124.7012168429747</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>35.70941812947295</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.066849283703</v>
+        <v>160.0063703567468</v>
       </c>
       <c r="H28" t="n">
         <v>130.781282966242</v>
       </c>
       <c r="I28" t="n">
-        <v>61.65479693373585</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.5131431297577</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>239.7097330287659</v>
@@ -2778,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,13 +2803,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.4476524459058</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>266.4097384417204</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>38.69418351668037</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.3908366544989</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4751836067882</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>343.8072512523497</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.2580395147996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>43.5784054279991</v>
+        <v>43.57840542799911</v>
       </c>
       <c r="T30" t="n">
         <v>124.7012168429747</v>
@@ -2952,25 +2952,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>105.1097290047694</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.066849283703</v>
+        <v>61.07243267748274</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>61.65479693373585</v>
+        <v>61.65479693373586</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.5131431297577</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>239.7097330287659</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>38.32260114692992</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>236.0050098195909</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.4476524459058</v>
       </c>
       <c r="H32" t="n">
-        <v>266.4097384417204</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>38.69418351668037</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>43.5784054279991</v>
+        <v>43.57840542799911</v>
       </c>
       <c r="T33" t="n">
         <v>124.7012168429747</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>152.3557443561663</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>130.781282966242</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>61.65479693373585</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.5131431297577</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>239.7097330287659</v>
@@ -3252,7 +3252,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>201.4458538606478</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>395.4476524459058</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>266.4097384417204</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>38.69418351668035</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>209.3908366544989</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4751836067882</v>
       </c>
       <c r="V35" t="n">
-        <v>38.64825209376063</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>71.52624438526924</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>43.5784054279991</v>
+        <v>43.57840542799911</v>
       </c>
       <c r="T36" t="n">
         <v>124.7012168429747</v>
@@ -3429,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.066849283703</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>130.781282966242</v>
       </c>
       <c r="I37" t="n">
-        <v>61.65479693373585</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>118.3161178921071</v>
+        <v>142.5131431297577</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.7097330287659</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6012973062951</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3489,7 +3489,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>92.37064063513992</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3508,19 +3508,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>115.6033914545318</v>
+        <v>266.4097384417204</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>38.69418351668037</v>
       </c>
       <c r="T38" t="n">
-        <v>209.3908366544989</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>370.9191550337251</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>43.5784054279991</v>
+        <v>43.57840542799911</v>
       </c>
       <c r="T39" t="n">
         <v>124.7012168429747</v>
@@ -3663,25 +3663,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.066849283703</v>
       </c>
       <c r="H40" t="n">
-        <v>130.781282966242</v>
+        <v>105.1097290047685</v>
       </c>
       <c r="I40" t="n">
-        <v>61.65479693373585</v>
+        <v>61.65479693373586</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.5131431297577</v>
       </c>
       <c r="T40" t="n">
         <v>239.7097330287659</v>
@@ -3720,7 +3720,7 @@
         <v>275.6012973062951</v>
       </c>
       <c r="V40" t="n">
-        <v>225.0978733868845</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3748,16 +3748,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>199.2948136210501</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>266.4097384417204</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>209.3908366544989</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>13.48569941767528</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>43.5784054279991</v>
+        <v>43.57840542799911</v>
       </c>
       <c r="T42" t="n">
         <v>124.7012168429747</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3918,7 +3918,7 @@
         <v>130.781282966242</v>
       </c>
       <c r="I43" t="n">
-        <v>61.65479693373585</v>
+        <v>61.65479693373586</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05099406787583</v>
+        <v>142.5131431297577</v>
       </c>
       <c r="T43" t="n">
         <v>239.7097330287659</v>
@@ -3957,7 +3957,7 @@
         <v>275.6012973062951</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>247.6936284594316</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>326.1620212776407</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>179.4248048965742</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>266.4097384417204</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>38.69418351668035</v>
+        <v>38.69418351668037</v>
       </c>
       <c r="T44" t="n">
         <v>209.3908366544989</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>43.5784054279991</v>
+        <v>43.57840542799911</v>
       </c>
       <c r="T45" t="n">
         <v>124.7012168429747</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4152,10 +4152,10 @@
         <v>163.066849283703</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>130.781282966242</v>
       </c>
       <c r="I46" t="n">
-        <v>7.047669729556306</v>
+        <v>61.65479693373586</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>239.7097330287659</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6012973062951</v>
+        <v>20.17919478185668</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1586.944120516566</v>
+        <v>1350.636459003819</v>
       </c>
       <c r="C11" t="n">
-        <v>1586.944120516566</v>
+        <v>912.4939861872427</v>
       </c>
       <c r="D11" t="n">
-        <v>1151.03433569101</v>
+        <v>476.5842013616872</v>
       </c>
       <c r="E11" t="n">
-        <v>717.2595908493054</v>
+        <v>476.5842013616872</v>
       </c>
       <c r="F11" t="n">
-        <v>717.2595908493054</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="G11" t="n">
-        <v>317.8175176716226</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="H11" t="n">
-        <v>48.716771770895</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="I11" t="n">
-        <v>122.2071970529796</v>
+        <v>122.2071970529792</v>
       </c>
       <c r="J11" t="n">
-        <v>284.8964781041981</v>
+        <v>284.8964781041976</v>
       </c>
       <c r="K11" t="n">
-        <v>528.7255375544868</v>
+        <v>528.7255375544864</v>
       </c>
       <c r="L11" t="n">
-        <v>831.2170466428699</v>
+        <v>831.2170466428695</v>
       </c>
       <c r="M11" t="n">
-        <v>1167.797134377709</v>
+        <v>1167.797134377708</v>
       </c>
       <c r="N11" t="n">
-        <v>1509.823439815745</v>
+        <v>1509.823439815744</v>
       </c>
       <c r="O11" t="n">
         <v>1832.789181316721</v>
       </c>
       <c r="P11" t="n">
-        <v>2108.432969611295</v>
+        <v>2108.432969611294</v>
       </c>
       <c r="Q11" t="n">
-        <v>2315.429975153288</v>
+        <v>2315.429975153287</v>
       </c>
       <c r="R11" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="S11" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="T11" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="U11" t="n">
-        <v>2176.772746517691</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="V11" t="n">
-        <v>2176.772746517691</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="W11" t="n">
-        <v>2176.772746517691</v>
+        <v>2178.065046124855</v>
       </c>
       <c r="X11" t="n">
-        <v>2176.772746517691</v>
+        <v>1758.922582704166</v>
       </c>
       <c r="Y11" t="n">
-        <v>2013.243691001474</v>
+        <v>1350.636459003819</v>
       </c>
     </row>
     <row r="12">
@@ -5111,25 +5111,25 @@
         <v>164.684848684769</v>
       </c>
       <c r="G12" t="n">
-        <v>80.34618184019172</v>
+        <v>80.3461818401917</v>
       </c>
       <c r="H12" t="n">
-        <v>48.716771770895</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="I12" t="n">
-        <v>84.02796795020363</v>
+        <v>84.0279679502036</v>
       </c>
       <c r="J12" t="n">
         <v>180.9245892111574</v>
       </c>
       <c r="K12" t="n">
-        <v>346.5363484128907</v>
+        <v>346.5363484128906</v>
       </c>
       <c r="L12" t="n">
-        <v>569.2217964201103</v>
+        <v>569.2217964201101</v>
       </c>
       <c r="M12" t="n">
-        <v>775.8846544545776</v>
+        <v>829.0852108505126</v>
       </c>
       <c r="N12" t="n">
         <v>1042.62588021723</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>750.39568646992</v>
+        <v>1030.437829075619</v>
       </c>
       <c r="C13" t="n">
-        <v>750.39568646992</v>
+        <v>857.8761175588435</v>
       </c>
       <c r="D13" t="n">
-        <v>584.5176936714427</v>
+        <v>691.9981247603662</v>
       </c>
       <c r="E13" t="n">
-        <v>584.5176936714427</v>
+        <v>522.2401210111034</v>
       </c>
       <c r="F13" t="n">
-        <v>407.8106396331989</v>
+        <v>345.5330669728596</v>
       </c>
       <c r="G13" t="n">
-        <v>243.0966504577413</v>
+        <v>180.819077797402</v>
       </c>
       <c r="H13" t="n">
-        <v>110.9943444312343</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="I13" t="n">
-        <v>48.716771770895</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="J13" t="n">
         <v>196.086283195932</v>
       </c>
       <c r="K13" t="n">
-        <v>570.7410962095564</v>
+        <v>405.0414496134567</v>
       </c>
       <c r="L13" t="n">
-        <v>698.5740419034894</v>
+        <v>532.8743953073897</v>
       </c>
       <c r="M13" t="n">
-        <v>1292.839826817097</v>
+        <v>1127.140180220997</v>
       </c>
       <c r="N13" t="n">
-        <v>1866.675734956151</v>
+        <v>1700.976088360052</v>
       </c>
       <c r="O13" t="n">
-        <v>2073.985315543397</v>
+        <v>2242.178090407728</v>
       </c>
       <c r="P13" t="n">
-        <v>2177.977581014357</v>
+        <v>2346.170355878688</v>
       </c>
       <c r="Q13" t="n">
-        <v>2418.169210152067</v>
+        <v>2418.169210152066</v>
       </c>
       <c r="R13" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="S13" t="n">
-        <v>2435.83858854475</v>
+        <v>2291.885918716711</v>
       </c>
       <c r="T13" t="n">
-        <v>2193.70754508135</v>
+        <v>2291.885918716711</v>
       </c>
       <c r="U13" t="n">
-        <v>1915.322396287112</v>
+        <v>2013.500769922473</v>
       </c>
       <c r="V13" t="n">
-        <v>1628.366888157543</v>
+        <v>1726.545261792904</v>
       </c>
       <c r="W13" t="n">
-        <v>1356.340483743835</v>
+        <v>1454.518857379195</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.948729077247</v>
+        <v>1449.676118480498</v>
       </c>
       <c r="Y13" t="n">
-        <v>883.5290583913552</v>
+        <v>1222.256447794606</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1320.076062606859</v>
+        <v>1331.330712612094</v>
       </c>
       <c r="C14" t="n">
-        <v>881.9335897902824</v>
+        <v>918.4013014381553</v>
       </c>
       <c r="D14" t="n">
-        <v>881.9335897902824</v>
+        <v>482.4915166125998</v>
       </c>
       <c r="E14" t="n">
-        <v>448.1588449485777</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="F14" t="n">
-        <v>448.1588449485777</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="G14" t="n">
         <v>48.71677177089499</v>
@@ -5275,16 +5275,16 @@
         <v>48.71677177089499</v>
       </c>
       <c r="I14" t="n">
-        <v>122.207197052979</v>
+        <v>122.2071970529792</v>
       </c>
       <c r="J14" t="n">
-        <v>284.8964781041976</v>
+        <v>284.896478104198</v>
       </c>
       <c r="K14" t="n">
-        <v>528.7255375544862</v>
+        <v>528.7255375544866</v>
       </c>
       <c r="L14" t="n">
-        <v>831.2170466428694</v>
+        <v>831.2170466428696</v>
       </c>
       <c r="M14" t="n">
         <v>1167.797134377708</v>
@@ -5302,28 +5302,28 @@
         <v>2315.429975153287</v>
       </c>
       <c r="R14" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="S14" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="T14" t="n">
-        <v>2403.139822643574</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="U14" t="n">
-        <v>2144.073980616515</v>
+        <v>2176.77274651769</v>
       </c>
       <c r="V14" t="n">
-        <v>2144.073980616515</v>
+        <v>2176.77274651769</v>
       </c>
       <c r="W14" t="n">
-        <v>1739.218526027548</v>
+        <v>2176.77274651769</v>
       </c>
       <c r="X14" t="n">
-        <v>1320.076062606859</v>
+        <v>1757.630283097001</v>
       </c>
       <c r="Y14" t="n">
-        <v>1320.076062606859</v>
+        <v>1757.630283097001</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1302.494080454056</v>
+        <v>543.7358517584581</v>
       </c>
       <c r="C15" t="n">
-        <v>1196.037619290698</v>
+        <v>437.2793905951004</v>
       </c>
       <c r="D15" t="n">
-        <v>1100.947330437251</v>
+        <v>342.1891017416537</v>
       </c>
       <c r="E15" t="n">
-        <v>1006.826915764205</v>
+        <v>248.0686870686074</v>
       </c>
       <c r="F15" t="n">
-        <v>923.4430773803667</v>
+        <v>164.684848684769</v>
       </c>
       <c r="G15" t="n">
-        <v>839.1044105357894</v>
+        <v>80.3461818401917</v>
       </c>
       <c r="H15" t="n">
-        <v>807.4750004664927</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="I15" t="n">
-        <v>842.7861966458014</v>
+        <v>84.0279679502036</v>
       </c>
       <c r="J15" t="n">
-        <v>939.6828179067552</v>
+        <v>180.9245892111574</v>
       </c>
       <c r="K15" t="n">
-        <v>1105.294577108489</v>
+        <v>293.3357920169558</v>
       </c>
       <c r="L15" t="n">
-        <v>1327.980025115708</v>
+        <v>516.0212400241753</v>
       </c>
       <c r="M15" t="n">
-        <v>1534.642883150175</v>
+        <v>775.8846544545777</v>
       </c>
       <c r="N15" t="n">
-        <v>1801.384108912828</v>
+        <v>1042.62588021723</v>
       </c>
       <c r="O15" t="n">
-        <v>2045.40021835728</v>
+        <v>1286.641989661683</v>
       </c>
       <c r="P15" t="n">
-        <v>2241.244659026674</v>
+        <v>1482.486430331076</v>
       </c>
       <c r="Q15" t="n">
-        <v>2372.161481141655</v>
+        <v>1613.403252446057</v>
       </c>
       <c r="R15" t="n">
-        <v>2435.83858854475</v>
+        <v>1677.080359849152</v>
       </c>
       <c r="S15" t="n">
-        <v>2391.819997203336</v>
+        <v>1633.061768507739</v>
       </c>
       <c r="T15" t="n">
-        <v>2265.859172109423</v>
+        <v>1507.100943413825</v>
       </c>
       <c r="U15" t="n">
-        <v>2089.591468720525</v>
+        <v>1330.833240024927</v>
       </c>
       <c r="V15" t="n">
-        <v>1890.473950782524</v>
+        <v>1131.715722086926</v>
       </c>
       <c r="W15" t="n">
-        <v>1705.151196515718</v>
+        <v>946.3929678201205</v>
       </c>
       <c r="X15" t="n">
-        <v>1550.283760754598</v>
+        <v>791.5255320590005</v>
       </c>
       <c r="Y15" t="n">
-        <v>1423.797981533819</v>
+        <v>665.0397528382213</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>864.5598362771412</v>
+        <v>733.6215338736539</v>
       </c>
       <c r="C16" t="n">
-        <v>691.9981247603662</v>
+        <v>561.0598223568788</v>
       </c>
       <c r="D16" t="n">
-        <v>691.9981247603662</v>
+        <v>395.1818295584015</v>
       </c>
       <c r="E16" t="n">
-        <v>522.2401210111034</v>
+        <v>225.4238258091388</v>
       </c>
       <c r="F16" t="n">
-        <v>345.5330669728596</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="G16" t="n">
-        <v>180.819077797402</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="H16" t="n">
         <v>48.71677177089499</v>
@@ -5436,52 +5436,52 @@
         <v>48.71677177089499</v>
       </c>
       <c r="J16" t="n">
-        <v>196.086283195932</v>
+        <v>109.5065980312421</v>
       </c>
       <c r="K16" t="n">
-        <v>570.7410962095564</v>
+        <v>209.4029564737309</v>
       </c>
       <c r="L16" t="n">
-        <v>698.5740419034894</v>
+        <v>644.851368517961</v>
       </c>
       <c r="M16" t="n">
-        <v>1053.699314543968</v>
+        <v>779.6332862506555</v>
       </c>
       <c r="N16" t="n">
-        <v>1185.276419525378</v>
+        <v>1353.46919438971</v>
       </c>
       <c r="O16" t="n">
-        <v>1726.478421573054</v>
+        <v>1894.671196437386</v>
       </c>
       <c r="P16" t="n">
-        <v>2177.977581014356</v>
+        <v>2346.170355878688</v>
       </c>
       <c r="Q16" t="n">
         <v>2418.169210152066</v>
       </c>
       <c r="R16" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="S16" t="n">
-        <v>2291.885918716712</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="T16" t="n">
-        <v>2049.754875253312</v>
+        <v>2193.707545081349</v>
       </c>
       <c r="U16" t="n">
-        <v>1771.369726459075</v>
+        <v>1915.322396287112</v>
       </c>
       <c r="V16" t="n">
-        <v>1484.414218329505</v>
+        <v>1670.277982358829</v>
       </c>
       <c r="W16" t="n">
-        <v>1484.414218329505</v>
+        <v>1398.25157794512</v>
       </c>
       <c r="X16" t="n">
-        <v>1239.022463662918</v>
+        <v>1152.859823278533</v>
       </c>
       <c r="Y16" t="n">
-        <v>1011.602792977026</v>
+        <v>925.440152592641</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>771.4948757670378</v>
+        <v>2009.539018059842</v>
       </c>
       <c r="C17" t="n">
-        <v>771.4948757670378</v>
+        <v>1571.396545243265</v>
       </c>
       <c r="D17" t="n">
-        <v>448.1588449485777</v>
+        <v>1135.486760417709</v>
       </c>
       <c r="E17" t="n">
-        <v>448.1588449485777</v>
+        <v>701.7120155760044</v>
       </c>
       <c r="F17" t="n">
-        <v>448.1588449485777</v>
+        <v>317.8175176716227</v>
       </c>
       <c r="G17" t="n">
-        <v>48.71677177089499</v>
+        <v>317.8175176716227</v>
       </c>
       <c r="H17" t="n">
         <v>48.71677177089499</v>
       </c>
       <c r="I17" t="n">
-        <v>122.2071970529798</v>
+        <v>122.2071970529792</v>
       </c>
       <c r="J17" t="n">
-        <v>284.8964781041983</v>
+        <v>284.8964781041977</v>
       </c>
       <c r="K17" t="n">
-        <v>528.7255375544869</v>
+        <v>528.7255375544863</v>
       </c>
       <c r="L17" t="n">
-        <v>831.2170466428701</v>
+        <v>831.2170466428695</v>
       </c>
       <c r="M17" t="n">
-        <v>1167.797134377709</v>
+        <v>1167.797134377708</v>
       </c>
       <c r="N17" t="n">
-        <v>1509.823439815745</v>
+        <v>1509.823439815744</v>
       </c>
       <c r="O17" t="n">
         <v>1832.789181316721</v>
       </c>
       <c r="P17" t="n">
-        <v>2108.432969611295</v>
+        <v>2108.432969611294</v>
       </c>
       <c r="Q17" t="n">
-        <v>2315.429975153288</v>
+        <v>2315.429975153287</v>
       </c>
       <c r="R17" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="S17" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="T17" t="n">
-        <v>2224.332692934145</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="U17" t="n">
-        <v>1965.266850907086</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="V17" t="n">
-        <v>1602.649900840912</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="W17" t="n">
-        <v>1197.794446251946</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="X17" t="n">
-        <v>1197.794446251946</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="Y17" t="n">
-        <v>1197.794446251946</v>
+        <v>2435.838588544749</v>
       </c>
     </row>
     <row r="18">
@@ -5585,7 +5585,7 @@
         <v>164.684848684769</v>
       </c>
       <c r="G18" t="n">
-        <v>80.34618184019172</v>
+        <v>80.3461818401917</v>
       </c>
       <c r="H18" t="n">
         <v>48.71677177089499</v>
@@ -5594,10 +5594,10 @@
         <v>84.02796795020362</v>
       </c>
       <c r="J18" t="n">
-        <v>180.9245892111574</v>
+        <v>127.7240328152223</v>
       </c>
       <c r="K18" t="n">
-        <v>346.5363484128906</v>
+        <v>293.3357920169556</v>
       </c>
       <c r="L18" t="n">
         <v>516.0212400241751</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>775.1774405302219</v>
+        <v>567.7435410751766</v>
       </c>
       <c r="C19" t="n">
-        <v>602.6157290134469</v>
+        <v>395.1818295584015</v>
       </c>
       <c r="D19" t="n">
-        <v>436.7377362149696</v>
+        <v>395.1818295584015</v>
       </c>
       <c r="E19" t="n">
-        <v>266.9797324657068</v>
+        <v>225.4238258091388</v>
       </c>
       <c r="F19" t="n">
-        <v>90.27267842746303</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="G19" t="n">
-        <v>90.27267842746303</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="H19" t="n">
-        <v>90.27267842746303</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="I19" t="n">
         <v>48.71677177089499</v>
@@ -5676,19 +5676,19 @@
         <v>109.5065980312421</v>
       </c>
       <c r="K19" t="n">
-        <v>484.1614110448666</v>
+        <v>209.402956473731</v>
       </c>
       <c r="L19" t="n">
-        <v>627.6263044946928</v>
+        <v>532.8743953073895</v>
       </c>
       <c r="M19" t="n">
-        <v>1221.8920894083</v>
+        <v>1127.140180220997</v>
       </c>
       <c r="N19" t="n">
-        <v>1353.46919438971</v>
+        <v>1700.976088360052</v>
       </c>
       <c r="O19" t="n">
-        <v>1894.671196437387</v>
+        <v>2242.178090407728</v>
       </c>
       <c r="P19" t="n">
         <v>2346.170355878688</v>
@@ -5697,28 +5697,28 @@
         <v>2418.169210152066</v>
       </c>
       <c r="R19" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="S19" t="n">
-        <v>2291.885918716712</v>
+        <v>2311.871689947558</v>
       </c>
       <c r="T19" t="n">
-        <v>2049.754875253312</v>
+        <v>2069.740646484159</v>
       </c>
       <c r="U19" t="n">
-        <v>1771.369726459075</v>
+        <v>1791.355497689921</v>
       </c>
       <c r="V19" t="n">
-        <v>1484.414218329505</v>
+        <v>1504.399989560352</v>
       </c>
       <c r="W19" t="n">
-        <v>1212.387813915797</v>
+        <v>1232.373585146643</v>
       </c>
       <c r="X19" t="n">
-        <v>966.9960592492091</v>
+        <v>986.9818304800556</v>
       </c>
       <c r="Y19" t="n">
-        <v>966.9960592492091</v>
+        <v>759.5621597941638</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1048.574164578658</v>
+        <v>1784.411203845524</v>
       </c>
       <c r="C20" t="n">
-        <v>610.4316917620813</v>
+        <v>1346.268731028948</v>
       </c>
       <c r="D20" t="n">
-        <v>174.5219069365258</v>
+        <v>910.3589462033921</v>
       </c>
       <c r="E20" t="n">
-        <v>174.5219069365258</v>
+        <v>476.5842013616872</v>
       </c>
       <c r="F20" t="n">
-        <v>174.5219069365258</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="G20" t="n">
         <v>48.71677177089499</v>
@@ -5749,13 +5749,13 @@
         <v>48.71677177089499</v>
       </c>
       <c r="I20" t="n">
-        <v>122.2071970529791</v>
+        <v>122.2071970529794</v>
       </c>
       <c r="J20" t="n">
-        <v>284.8964781041976</v>
+        <v>284.8964781041978</v>
       </c>
       <c r="K20" t="n">
-        <v>528.7255375544862</v>
+        <v>528.7255375544863</v>
       </c>
       <c r="L20" t="n">
         <v>831.2170466428694</v>
@@ -5776,28 +5776,28 @@
         <v>2315.429975153287</v>
       </c>
       <c r="R20" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="S20" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="T20" t="n">
-        <v>2224.332692934145</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="U20" t="n">
-        <v>2224.332692934145</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="V20" t="n">
-        <v>1861.715742867971</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="W20" t="n">
-        <v>1456.860288279004</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="X20" t="n">
-        <v>1456.860288279004</v>
+        <v>2210.710774330432</v>
       </c>
       <c r="Y20" t="n">
-        <v>1048.574164578658</v>
+        <v>2210.710774330432</v>
       </c>
     </row>
     <row r="21">
@@ -5822,31 +5822,31 @@
         <v>164.684848684769</v>
       </c>
       <c r="G21" t="n">
-        <v>80.34618184019172</v>
+        <v>80.3461818401917</v>
       </c>
       <c r="H21" t="n">
         <v>48.71677177089499</v>
       </c>
       <c r="I21" t="n">
-        <v>48.71677177089499</v>
+        <v>84.0279679502036</v>
       </c>
       <c r="J21" t="n">
-        <v>145.6133930318488</v>
+        <v>180.9245892111574</v>
       </c>
       <c r="K21" t="n">
-        <v>311.225152233582</v>
+        <v>346.5363484128906</v>
       </c>
       <c r="L21" t="n">
-        <v>533.9106002408017</v>
+        <v>569.2217964201101</v>
       </c>
       <c r="M21" t="n">
-        <v>793.7740146712041</v>
+        <v>829.0852108505126</v>
       </c>
       <c r="N21" t="n">
-        <v>1060.515240433857</v>
+        <v>1095.826436613165</v>
       </c>
       <c r="O21" t="n">
-        <v>1286.641989661683</v>
+        <v>1339.842546057618</v>
       </c>
       <c r="P21" t="n">
         <v>1482.486430331076</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>721.6284690108677</v>
+        <v>853.7307750373748</v>
       </c>
       <c r="C22" t="n">
-        <v>549.0667574940926</v>
+        <v>681.1690635205997</v>
       </c>
       <c r="D22" t="n">
-        <v>383.1887646956153</v>
+        <v>515.2910707221224</v>
       </c>
       <c r="E22" t="n">
-        <v>213.4307609463526</v>
+        <v>345.5330669728596</v>
       </c>
       <c r="F22" t="n">
-        <v>213.4307609463526</v>
+        <v>345.5330669728596</v>
       </c>
       <c r="G22" t="n">
-        <v>48.71677177089499</v>
+        <v>180.819077797402</v>
       </c>
       <c r="H22" t="n">
         <v>48.71677177089499</v>
@@ -5913,49 +5913,49 @@
         <v>109.5065980312421</v>
       </c>
       <c r="K22" t="n">
-        <v>484.1614110448666</v>
+        <v>209.4029564737309</v>
       </c>
       <c r="L22" t="n">
-        <v>611.9943567387996</v>
+        <v>532.8743953073897</v>
       </c>
       <c r="M22" t="n">
-        <v>746.776274471494</v>
+        <v>1127.140180220997</v>
       </c>
       <c r="N22" t="n">
-        <v>1320.612182610548</v>
+        <v>1700.976088360052</v>
       </c>
       <c r="O22" t="n">
-        <v>1861.814184658225</v>
+        <v>2242.178090407728</v>
       </c>
       <c r="P22" t="n">
-        <v>2313.313344099527</v>
+        <v>2346.170355878688</v>
       </c>
       <c r="Q22" t="n">
         <v>2418.169210152066</v>
       </c>
       <c r="R22" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="S22" t="n">
-        <v>2291.885918716712</v>
+        <v>2291.885918716711</v>
       </c>
       <c r="T22" t="n">
-        <v>2049.754875253312</v>
+        <v>2049.754875253311</v>
       </c>
       <c r="U22" t="n">
-        <v>1771.369726459075</v>
+        <v>1771.369726459074</v>
       </c>
       <c r="V22" t="n">
-        <v>1484.414218329505</v>
+        <v>1484.414218329504</v>
       </c>
       <c r="W22" t="n">
-        <v>1212.387813915797</v>
+        <v>1212.387813915796</v>
       </c>
       <c r="X22" t="n">
-        <v>1140.866758415747</v>
+        <v>966.9960592492082</v>
       </c>
       <c r="Y22" t="n">
-        <v>913.4470877298547</v>
+        <v>853.7307750373748</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2017.044238098379</v>
+        <v>1617.602164920696</v>
       </c>
       <c r="C23" t="n">
-        <v>1578.901765281802</v>
+        <v>1179.45969210412</v>
       </c>
       <c r="D23" t="n">
-        <v>1578.901765281802</v>
+        <v>1179.45969210412</v>
       </c>
       <c r="E23" t="n">
-        <v>1145.127020440098</v>
+        <v>745.6849472624149</v>
       </c>
       <c r="F23" t="n">
-        <v>717.2595908493054</v>
+        <v>317.8175176716227</v>
       </c>
       <c r="G23" t="n">
-        <v>317.8175176716226</v>
+        <v>317.8175176716227</v>
       </c>
       <c r="H23" t="n">
-        <v>48.71677177089499</v>
+        <v>48.71677177089497</v>
       </c>
       <c r="I23" t="n">
         <v>122.2071970529787</v>
@@ -5992,10 +5992,10 @@
         <v>284.8964781041971</v>
       </c>
       <c r="K23" t="n">
-        <v>528.7255375544855</v>
+        <v>528.7255375544858</v>
       </c>
       <c r="L23" t="n">
-        <v>831.2170466428687</v>
+        <v>831.2170466428688</v>
       </c>
       <c r="M23" t="n">
         <v>1167.797134377708</v>
@@ -6007,34 +6007,34 @@
         <v>1832.78918131672</v>
       </c>
       <c r="P23" t="n">
-        <v>2108.432969611294</v>
+        <v>2108.432969611293</v>
       </c>
       <c r="Q23" t="n">
-        <v>2315.429975153287</v>
+        <v>2315.429975153286</v>
       </c>
       <c r="R23" t="n">
-        <v>2435.838588544749</v>
+        <v>2435.838588544748</v>
       </c>
       <c r="S23" t="n">
-        <v>2435.838588544749</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="T23" t="n">
-        <v>2435.838588544749</v>
+        <v>2185.247659078911</v>
       </c>
       <c r="U23" t="n">
-        <v>2435.838588544749</v>
+        <v>2025.888288621043</v>
       </c>
       <c r="V23" t="n">
-        <v>2435.838588544749</v>
+        <v>2025.888288621043</v>
       </c>
       <c r="W23" t="n">
-        <v>2435.838588544749</v>
+        <v>2025.888288621043</v>
       </c>
       <c r="X23" t="n">
-        <v>2017.044238098379</v>
+        <v>2025.888288621043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2017.044238098379</v>
+        <v>1617.602164920696</v>
       </c>
     </row>
     <row r="24">
@@ -6050,40 +6050,40 @@
         <v>437.2793905951004</v>
       </c>
       <c r="D24" t="n">
-        <v>342.1891017416537</v>
+        <v>342.1891017416536</v>
       </c>
       <c r="E24" t="n">
-        <v>248.0686870686074</v>
+        <v>248.0686870686073</v>
       </c>
       <c r="F24" t="n">
         <v>164.684848684769</v>
       </c>
       <c r="G24" t="n">
-        <v>80.3461818401917</v>
+        <v>80.34618184019169</v>
       </c>
       <c r="H24" t="n">
-        <v>48.71677177089499</v>
+        <v>48.71677177089497</v>
       </c>
       <c r="I24" t="n">
-        <v>84.02796795020362</v>
+        <v>84.02796795020359</v>
       </c>
       <c r="J24" t="n">
         <v>180.9245892111574</v>
       </c>
       <c r="K24" t="n">
-        <v>346.5363484128907</v>
+        <v>346.5363484128906</v>
       </c>
       <c r="L24" t="n">
-        <v>516.0212400241751</v>
+        <v>569.2217964201101</v>
       </c>
       <c r="M24" t="n">
-        <v>775.8846544545776</v>
+        <v>829.0852108505126</v>
       </c>
       <c r="N24" t="n">
-        <v>1042.62588021723</v>
+        <v>1095.826436613165</v>
       </c>
       <c r="O24" t="n">
-        <v>1286.641989661683</v>
+        <v>1339.842546057618</v>
       </c>
       <c r="P24" t="n">
         <v>1482.486430331076</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>898.3355230491115</v>
+        <v>926.8374089374805</v>
       </c>
       <c r="C25" t="n">
-        <v>725.7738115323365</v>
+        <v>754.2756974207055</v>
       </c>
       <c r="D25" t="n">
-        <v>559.8958187338592</v>
+        <v>754.2756974207055</v>
       </c>
       <c r="E25" t="n">
-        <v>390.1378149845964</v>
+        <v>584.5176936714427</v>
       </c>
       <c r="F25" t="n">
-        <v>213.4307609463526</v>
+        <v>407.8106396331989</v>
       </c>
       <c r="G25" t="n">
-        <v>48.71677177089499</v>
+        <v>243.0966504577413</v>
       </c>
       <c r="H25" t="n">
-        <v>48.71677177089499</v>
+        <v>110.9943444312342</v>
       </c>
       <c r="I25" t="n">
-        <v>48.71677177089499</v>
+        <v>48.71677177089497</v>
       </c>
       <c r="J25" t="n">
         <v>109.5065980312421</v>
       </c>
       <c r="K25" t="n">
-        <v>484.1614110448666</v>
+        <v>372.8745693493784</v>
       </c>
       <c r="L25" t="n">
-        <v>1030.204238506761</v>
+        <v>918.9173968112724</v>
       </c>
       <c r="M25" t="n">
-        <v>1164.986156239455</v>
+        <v>1053.699314543967</v>
       </c>
       <c r="N25" t="n">
-        <v>1296.563261220865</v>
+        <v>1185.276419525376</v>
       </c>
       <c r="O25" t="n">
-        <v>1726.478421573054</v>
+        <v>1726.478421573053</v>
       </c>
       <c r="P25" t="n">
-        <v>2177.977581014356</v>
+        <v>2177.977581014355</v>
       </c>
       <c r="Q25" t="n">
-        <v>2418.169210152066</v>
+        <v>2418.169210152065</v>
       </c>
       <c r="R25" t="n">
-        <v>2435.838588544749</v>
+        <v>2435.838588544748</v>
       </c>
       <c r="S25" t="n">
-        <v>2291.885918716711</v>
+        <v>2291.88591871671</v>
       </c>
       <c r="T25" t="n">
-        <v>2049.754875253311</v>
+        <v>2049.75487525331</v>
       </c>
       <c r="U25" t="n">
-        <v>1771.369726459074</v>
+        <v>1771.369726459073</v>
       </c>
       <c r="V25" t="n">
-        <v>1643.173352815299</v>
+        <v>1484.414218329503</v>
       </c>
       <c r="W25" t="n">
-        <v>1371.146948401591</v>
+        <v>1212.387813915795</v>
       </c>
       <c r="X25" t="n">
-        <v>1125.755193735003</v>
+        <v>1212.387813915795</v>
       </c>
       <c r="Y25" t="n">
-        <v>898.3355230491115</v>
+        <v>984.968143229903</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1578.901765281802</v>
+        <v>1348.501419019969</v>
       </c>
       <c r="C26" t="n">
-        <v>1578.901765281802</v>
+        <v>910.3589462033921</v>
       </c>
       <c r="D26" t="n">
-        <v>1578.901765281802</v>
+        <v>910.3589462033921</v>
       </c>
       <c r="E26" t="n">
-        <v>1145.127020440098</v>
+        <v>476.5842013616872</v>
       </c>
       <c r="F26" t="n">
-        <v>717.2595908493054</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="G26" t="n">
-        <v>317.8175176716226</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="H26" t="n">
-        <v>48.716771770895</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="I26" t="n">
-        <v>122.2071970529792</v>
+        <v>122.2071970529794</v>
       </c>
       <c r="J26" t="n">
-        <v>284.896478104198</v>
+        <v>284.8964781041978</v>
       </c>
       <c r="K26" t="n">
-        <v>528.7255375544867</v>
+        <v>528.7255375544863</v>
       </c>
       <c r="L26" t="n">
-        <v>831.2170466428698</v>
+        <v>831.2170466428694</v>
       </c>
       <c r="M26" t="n">
-        <v>1167.797134377709</v>
+        <v>1167.797134377708</v>
       </c>
       <c r="N26" t="n">
-        <v>1509.823439815745</v>
+        <v>1509.823439815744</v>
       </c>
       <c r="O26" t="n">
         <v>1832.789181316721</v>
       </c>
       <c r="P26" t="n">
-        <v>2108.432969611295</v>
+        <v>2108.432969611294</v>
       </c>
       <c r="Q26" t="n">
-        <v>2315.429975153288</v>
+        <v>2315.429975153287</v>
       </c>
       <c r="R26" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="S26" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="T26" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="U26" t="n">
-        <v>2176.772746517691</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="V26" t="n">
-        <v>2176.772746517691</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="W26" t="n">
-        <v>2005.20133576671</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="X26" t="n">
-        <v>2005.20133576671</v>
+        <v>1977.611091268827</v>
       </c>
       <c r="Y26" t="n">
-        <v>2005.20133576671</v>
+        <v>1569.324967568481</v>
       </c>
     </row>
     <row r="27">
@@ -6296,25 +6296,25 @@
         <v>164.684848684769</v>
       </c>
       <c r="G27" t="n">
-        <v>80.34618184019172</v>
+        <v>80.3461818401917</v>
       </c>
       <c r="H27" t="n">
-        <v>48.716771770895</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="I27" t="n">
-        <v>84.02796795020365</v>
+        <v>84.0279679502036</v>
       </c>
       <c r="J27" t="n">
         <v>180.9245892111574</v>
       </c>
       <c r="K27" t="n">
-        <v>346.5363484128907</v>
+        <v>346.5363484128906</v>
       </c>
       <c r="L27" t="n">
-        <v>569.2217964201103</v>
+        <v>569.2217964201101</v>
       </c>
       <c r="M27" t="n">
-        <v>829.0852108505127</v>
+        <v>829.0852108505126</v>
       </c>
       <c r="N27" t="n">
         <v>1042.62588021723</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>793.1495245109177</v>
+        <v>691.7104396723671</v>
       </c>
       <c r="C28" t="n">
-        <v>620.5878129941426</v>
+        <v>519.148728155592</v>
       </c>
       <c r="D28" t="n">
-        <v>620.5878129941426</v>
+        <v>519.148728155592</v>
       </c>
       <c r="E28" t="n">
-        <v>584.5176936714427</v>
+        <v>519.148728155592</v>
       </c>
       <c r="F28" t="n">
-        <v>407.8106396331989</v>
+        <v>342.4416741173483</v>
       </c>
       <c r="G28" t="n">
-        <v>243.0966504577413</v>
+        <v>180.819077797402</v>
       </c>
       <c r="H28" t="n">
-        <v>110.9943444312342</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="I28" t="n">
-        <v>48.716771770895</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="J28" t="n">
         <v>196.086283195932</v>
       </c>
       <c r="K28" t="n">
-        <v>570.7410962095564</v>
+        <v>405.0414496134567</v>
       </c>
       <c r="L28" t="n">
-        <v>1116.78392367145</v>
+        <v>532.8743953073897</v>
       </c>
       <c r="M28" t="n">
-        <v>1251.565841404145</v>
+        <v>1127.140180220997</v>
       </c>
       <c r="N28" t="n">
-        <v>1383.142946385555</v>
+        <v>1700.976088360052</v>
       </c>
       <c r="O28" t="n">
-        <v>1726.478421573055</v>
+        <v>2242.178090407728</v>
       </c>
       <c r="P28" t="n">
-        <v>2177.977581014357</v>
+        <v>2346.170355878688</v>
       </c>
       <c r="Q28" t="n">
-        <v>2418.169210152067</v>
+        <v>2418.169210152066</v>
       </c>
       <c r="R28" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="S28" t="n">
-        <v>2291.885918716712</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="T28" t="n">
-        <v>2049.754875253312</v>
+        <v>2193.707545081349</v>
       </c>
       <c r="U28" t="n">
-        <v>1771.369726459075</v>
+        <v>1915.322396287112</v>
       </c>
       <c r="V28" t="n">
-        <v>1484.414218329505</v>
+        <v>1628.366888157542</v>
       </c>
       <c r="W28" t="n">
-        <v>1212.387813915797</v>
+        <v>1356.340483743834</v>
       </c>
       <c r="X28" t="n">
-        <v>1212.387813915797</v>
+        <v>1110.948729077246</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9681432299049</v>
+        <v>883.5290583913543</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>920.6339894291765</v>
+        <v>1578.901765281802</v>
       </c>
       <c r="C29" t="n">
-        <v>482.4915166125998</v>
+        <v>1578.901765281802</v>
       </c>
       <c r="D29" t="n">
-        <v>482.4915166125998</v>
+        <v>1578.901765281802</v>
       </c>
       <c r="E29" t="n">
-        <v>48.716771770895</v>
+        <v>1145.127020440098</v>
       </c>
       <c r="F29" t="n">
-        <v>48.716771770895</v>
+        <v>717.2595908493054</v>
       </c>
       <c r="G29" t="n">
-        <v>48.716771770895</v>
+        <v>317.8175176716227</v>
       </c>
       <c r="H29" t="n">
-        <v>48.716771770895</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="I29" t="n">
-        <v>122.2071970529796</v>
+        <v>122.2071970529792</v>
       </c>
       <c r="J29" t="n">
         <v>284.896478104198</v>
       </c>
       <c r="K29" t="n">
-        <v>528.7255375544867</v>
+        <v>528.7255375544864</v>
       </c>
       <c r="L29" t="n">
-        <v>831.2170466428697</v>
+        <v>831.2170466428695</v>
       </c>
       <c r="M29" t="n">
         <v>1167.797134377708</v>
       </c>
       <c r="N29" t="n">
-        <v>1509.823439815745</v>
+        <v>1509.823439815744</v>
       </c>
       <c r="O29" t="n">
         <v>1832.789181316721</v>
       </c>
       <c r="P29" t="n">
-        <v>2108.432969611295</v>
+        <v>2108.432969611294</v>
       </c>
       <c r="Q29" t="n">
-        <v>2315.429975153288</v>
+        <v>2315.429975153287</v>
       </c>
       <c r="R29" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="S29" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="T29" t="n">
-        <v>2435.83858854475</v>
+        <v>2185.247659078912</v>
       </c>
       <c r="U29" t="n">
-        <v>2435.83858854475</v>
+        <v>1926.181817051853</v>
       </c>
       <c r="V29" t="n">
-        <v>2435.83858854475</v>
+        <v>1926.181817051853</v>
       </c>
       <c r="W29" t="n">
-        <v>2030.983133955783</v>
+        <v>1926.181817051853</v>
       </c>
       <c r="X29" t="n">
-        <v>1611.840670535094</v>
+        <v>1578.901765281802</v>
       </c>
       <c r="Y29" t="n">
-        <v>1346.933559914084</v>
+        <v>1578.901765281802</v>
       </c>
     </row>
     <row r="30">
@@ -6533,25 +6533,25 @@
         <v>164.684848684769</v>
       </c>
       <c r="G30" t="n">
-        <v>80.34618184019172</v>
+        <v>80.3461818401917</v>
       </c>
       <c r="H30" t="n">
-        <v>48.716771770895</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="I30" t="n">
-        <v>84.02796795020363</v>
+        <v>84.0279679502036</v>
       </c>
       <c r="J30" t="n">
         <v>180.9245892111574</v>
       </c>
       <c r="K30" t="n">
-        <v>346.5363484128907</v>
+        <v>346.5363484128906</v>
       </c>
       <c r="L30" t="n">
-        <v>569.2217964201103</v>
+        <v>569.2217964201101</v>
       </c>
       <c r="M30" t="n">
-        <v>829.0852108505127</v>
+        <v>829.0852108505126</v>
       </c>
       <c r="N30" t="n">
         <v>1095.826436613165</v>
@@ -6560,10 +6560,10 @@
         <v>1339.842546057618</v>
       </c>
       <c r="P30" t="n">
-        <v>1535.686986727012</v>
+        <v>1482.486430331076</v>
       </c>
       <c r="Q30" t="n">
-        <v>1666.603808841993</v>
+        <v>1613.403252446057</v>
       </c>
       <c r="R30" t="n">
         <v>1677.080359849152</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>547.7577698443301</v>
+        <v>691.7104396723671</v>
       </c>
       <c r="C31" t="n">
-        <v>547.7577698443301</v>
+        <v>519.148728155592</v>
       </c>
       <c r="D31" t="n">
-        <v>381.8797770458528</v>
+        <v>519.148728155592</v>
       </c>
       <c r="E31" t="n">
-        <v>381.8797770458528</v>
+        <v>349.3907244063293</v>
       </c>
       <c r="F31" t="n">
-        <v>275.7083336066918</v>
+        <v>172.6836703680855</v>
       </c>
       <c r="G31" t="n">
-        <v>110.9943444312343</v>
+        <v>110.9943444312342</v>
       </c>
       <c r="H31" t="n">
-        <v>110.9943444312343</v>
+        <v>110.9943444312342</v>
       </c>
       <c r="I31" t="n">
-        <v>48.716771770895</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="J31" t="n">
-        <v>196.086283195932</v>
+        <v>109.5065980312421</v>
       </c>
       <c r="K31" t="n">
-        <v>295.9826416384208</v>
+        <v>484.1614110448666</v>
       </c>
       <c r="L31" t="n">
-        <v>423.8155873323538</v>
+        <v>611.9943567387995</v>
       </c>
       <c r="M31" t="n">
-        <v>1018.081372245961</v>
+        <v>1206.260141652407</v>
       </c>
       <c r="N31" t="n">
-        <v>1591.917280385016</v>
+        <v>1780.096049791461</v>
       </c>
       <c r="O31" t="n">
-        <v>1726.478421573055</v>
+        <v>2242.178090407728</v>
       </c>
       <c r="P31" t="n">
-        <v>2177.977581014357</v>
+        <v>2346.170355878688</v>
       </c>
       <c r="Q31" t="n">
-        <v>2418.169210152067</v>
+        <v>2418.169210152066</v>
       </c>
       <c r="R31" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="S31" t="n">
-        <v>2291.885918716712</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="T31" t="n">
-        <v>2049.754875253312</v>
+        <v>2193.707545081349</v>
       </c>
       <c r="U31" t="n">
-        <v>1771.369726459075</v>
+        <v>1915.322396287112</v>
       </c>
       <c r="V31" t="n">
-        <v>1484.414218329505</v>
+        <v>1628.366888157542</v>
       </c>
       <c r="W31" t="n">
-        <v>1212.387813915797</v>
+        <v>1356.340483743834</v>
       </c>
       <c r="X31" t="n">
-        <v>966.9960592492091</v>
+        <v>1110.948729077246</v>
       </c>
       <c r="Y31" t="n">
-        <v>739.5763885633173</v>
+        <v>883.5290583913543</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1615.369476929675</v>
+        <v>1988.46743098917</v>
       </c>
       <c r="C32" t="n">
-        <v>1615.369476929675</v>
+        <v>1550.324958172593</v>
       </c>
       <c r="D32" t="n">
-        <v>1179.45969210412</v>
+        <v>1114.415173347038</v>
       </c>
       <c r="E32" t="n">
-        <v>745.6849472624149</v>
+        <v>876.02627453937</v>
       </c>
       <c r="F32" t="n">
-        <v>317.8175176716226</v>
+        <v>448.1588449485777</v>
       </c>
       <c r="G32" t="n">
-        <v>317.8175176716226</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="H32" t="n">
-        <v>48.716771770895</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="I32" t="n">
-        <v>122.2071970529796</v>
+        <v>122.2071970529794</v>
       </c>
       <c r="J32" t="n">
-        <v>284.8964781041981</v>
+        <v>284.8964781041978</v>
       </c>
       <c r="K32" t="n">
-        <v>528.7255375544868</v>
+        <v>528.7255375544863</v>
       </c>
       <c r="L32" t="n">
-        <v>831.2170466428699</v>
+        <v>831.2170466428694</v>
       </c>
       <c r="M32" t="n">
-        <v>1167.797134377709</v>
+        <v>1167.797134377708</v>
       </c>
       <c r="N32" t="n">
-        <v>1509.823439815745</v>
+        <v>1509.823439815744</v>
       </c>
       <c r="O32" t="n">
         <v>1832.789181316721</v>
       </c>
       <c r="P32" t="n">
-        <v>2108.432969611295</v>
+        <v>2108.432969611294</v>
       </c>
       <c r="Q32" t="n">
-        <v>2315.429975153288</v>
+        <v>2315.429975153287</v>
       </c>
       <c r="R32" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="S32" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="T32" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="U32" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="V32" t="n">
-        <v>2073.221638478577</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="W32" t="n">
-        <v>2073.221638478577</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="X32" t="n">
-        <v>1654.079175057887</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="Y32" t="n">
-        <v>1654.079175057887</v>
+        <v>1988.46743098917</v>
       </c>
     </row>
     <row r="33">
@@ -6770,25 +6770,25 @@
         <v>164.684848684769</v>
       </c>
       <c r="G33" t="n">
-        <v>80.34618184019172</v>
+        <v>80.3461818401917</v>
       </c>
       <c r="H33" t="n">
-        <v>48.716771770895</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="I33" t="n">
-        <v>84.02796795020363</v>
+        <v>84.0279679502036</v>
       </c>
       <c r="J33" t="n">
-        <v>127.7240328152223</v>
+        <v>127.7240328152226</v>
       </c>
       <c r="K33" t="n">
-        <v>293.3357920169556</v>
+        <v>293.3357920169558</v>
       </c>
       <c r="L33" t="n">
-        <v>516.0212400241751</v>
+        <v>516.0212400241753</v>
       </c>
       <c r="M33" t="n">
-        <v>775.8846544545776</v>
+        <v>775.8846544545777</v>
       </c>
       <c r="N33" t="n">
         <v>1042.62588021723</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>739.5763885633173</v>
+        <v>733.6215338736539</v>
       </c>
       <c r="C34" t="n">
-        <v>739.5763885633173</v>
+        <v>561.0598223568788</v>
       </c>
       <c r="D34" t="n">
-        <v>573.69839576484</v>
+        <v>395.1818295584015</v>
       </c>
       <c r="E34" t="n">
-        <v>419.8037044959851</v>
+        <v>225.4238258091388</v>
       </c>
       <c r="F34" t="n">
-        <v>243.0966504577413</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="G34" t="n">
-        <v>243.0966504577413</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="H34" t="n">
-        <v>110.9943444312343</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="I34" t="n">
-        <v>48.716771770895</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="J34" t="n">
         <v>109.5065980312421</v>
       </c>
       <c r="K34" t="n">
-        <v>484.1614110448666</v>
+        <v>372.8745693493793</v>
       </c>
       <c r="L34" t="n">
-        <v>611.9943567387996</v>
+        <v>918.9173968112733</v>
       </c>
       <c r="M34" t="n">
-        <v>1206.260141652407</v>
+        <v>1053.699314543968</v>
       </c>
       <c r="N34" t="n">
-        <v>1773.138443615491</v>
+        <v>1185.276419525377</v>
       </c>
       <c r="O34" t="n">
-        <v>1894.671196437387</v>
+        <v>1726.478421573054</v>
       </c>
       <c r="P34" t="n">
-        <v>2346.170355878688</v>
+        <v>2177.977581014356</v>
       </c>
       <c r="Q34" t="n">
-        <v>2418.169210152067</v>
+        <v>2418.169210152066</v>
       </c>
       <c r="R34" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="S34" t="n">
-        <v>2291.885918716712</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="T34" t="n">
-        <v>2049.754875253312</v>
+        <v>2193.707545081349</v>
       </c>
       <c r="U34" t="n">
-        <v>1771.369726459075</v>
+        <v>1915.322396287112</v>
       </c>
       <c r="V34" t="n">
-        <v>1484.414218329505</v>
+        <v>1628.366888157542</v>
       </c>
       <c r="W34" t="n">
-        <v>1212.387813915797</v>
+        <v>1356.340483743834</v>
       </c>
       <c r="X34" t="n">
-        <v>966.9960592492091</v>
+        <v>1152.859823278533</v>
       </c>
       <c r="Y34" t="n">
-        <v>739.5763885633173</v>
+        <v>925.440152592641</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1322.21110259071</v>
+        <v>717.2595908493054</v>
       </c>
       <c r="C35" t="n">
-        <v>884.0686297741331</v>
+        <v>717.2595908493054</v>
       </c>
       <c r="D35" t="n">
-        <v>448.1588449485777</v>
+        <v>717.2595908493054</v>
       </c>
       <c r="E35" t="n">
-        <v>448.1588449485777</v>
+        <v>717.2595908493054</v>
       </c>
       <c r="F35" t="n">
-        <v>448.1588449485777</v>
+        <v>717.2595908493054</v>
       </c>
       <c r="G35" t="n">
-        <v>48.71677177089499</v>
+        <v>317.8175176716227</v>
       </c>
       <c r="H35" t="n">
-        <v>48.71677177089499</v>
+        <v>48.71677177089497</v>
       </c>
       <c r="I35" t="n">
-        <v>122.2071970529792</v>
+        <v>122.2071970529787</v>
       </c>
       <c r="J35" t="n">
-        <v>284.8964781041976</v>
+        <v>284.8964781041971</v>
       </c>
       <c r="K35" t="n">
-        <v>528.725537554486</v>
+        <v>528.7255375544856</v>
       </c>
       <c r="L35" t="n">
-        <v>831.2170466428691</v>
+        <v>831.2170466428688</v>
       </c>
       <c r="M35" t="n">
-        <v>1167.797134377708</v>
+        <v>1167.797134377707</v>
       </c>
       <c r="N35" t="n">
-        <v>1509.823439815745</v>
+        <v>1509.823439815744</v>
       </c>
       <c r="O35" t="n">
-        <v>1832.789181316721</v>
+        <v>1832.78918131672</v>
       </c>
       <c r="P35" t="n">
-        <v>2108.432969611294</v>
+        <v>2108.432969611293</v>
       </c>
       <c r="Q35" t="n">
-        <v>2315.429975153287</v>
+        <v>2315.429975153286</v>
       </c>
       <c r="R35" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544748</v>
       </c>
       <c r="S35" t="n">
-        <v>2396.753554689517</v>
+        <v>2435.838588544748</v>
       </c>
       <c r="T35" t="n">
-        <v>2185.247659078912</v>
+        <v>2224.332692934143</v>
       </c>
       <c r="U35" t="n">
-        <v>2185.247659078912</v>
+        <v>1965.266850907085</v>
       </c>
       <c r="V35" t="n">
-        <v>2146.209020600366</v>
+        <v>1602.649900840911</v>
       </c>
       <c r="W35" t="n">
-        <v>1741.353566011399</v>
+        <v>1197.794446251944</v>
       </c>
       <c r="X35" t="n">
-        <v>1322.21110259071</v>
+        <v>1125.545714549652</v>
       </c>
       <c r="Y35" t="n">
-        <v>1322.21110259071</v>
+        <v>717.2595908493054</v>
       </c>
     </row>
     <row r="36">
@@ -6998,46 +6998,46 @@
         <v>437.2793905951004</v>
       </c>
       <c r="D36" t="n">
-        <v>342.1891017416537</v>
+        <v>342.1891017416536</v>
       </c>
       <c r="E36" t="n">
-        <v>248.0686870686074</v>
+        <v>248.0686870686073</v>
       </c>
       <c r="F36" t="n">
         <v>164.684848684769</v>
       </c>
       <c r="G36" t="n">
-        <v>80.34618184019172</v>
+        <v>80.34618184019169</v>
       </c>
       <c r="H36" t="n">
-        <v>48.71677177089499</v>
+        <v>48.71677177089497</v>
       </c>
       <c r="I36" t="n">
-        <v>48.71677177089499</v>
+        <v>84.02796795020359</v>
       </c>
       <c r="J36" t="n">
-        <v>145.6133930318488</v>
+        <v>180.9245892111574</v>
       </c>
       <c r="K36" t="n">
-        <v>293.3357920169556</v>
+        <v>346.5363484128906</v>
       </c>
       <c r="L36" t="n">
-        <v>516.0212400241751</v>
+        <v>569.2217964201101</v>
       </c>
       <c r="M36" t="n">
-        <v>775.8846544545776</v>
+        <v>829.0852108505126</v>
       </c>
       <c r="N36" t="n">
-        <v>1042.62588021723</v>
+        <v>1095.826436613165</v>
       </c>
       <c r="O36" t="n">
-        <v>1286.641989661683</v>
+        <v>1339.842546057618</v>
       </c>
       <c r="P36" t="n">
-        <v>1482.486430331076</v>
+        <v>1535.686986727011</v>
       </c>
       <c r="Q36" t="n">
-        <v>1613.403252446057</v>
+        <v>1666.603808841992</v>
       </c>
       <c r="R36" t="n">
         <v>1677.080359849152</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.715401735958</v>
+        <v>699.8458471016837</v>
       </c>
       <c r="C37" t="n">
-        <v>920.1536902191827</v>
+        <v>527.2841355849087</v>
       </c>
       <c r="D37" t="n">
-        <v>754.2756974207055</v>
+        <v>527.2841355849087</v>
       </c>
       <c r="E37" t="n">
-        <v>584.5176936714427</v>
+        <v>357.5261318356459</v>
       </c>
       <c r="F37" t="n">
-        <v>407.8106396331989</v>
+        <v>180.819077797402</v>
       </c>
       <c r="G37" t="n">
-        <v>243.0966504577413</v>
+        <v>180.819077797402</v>
       </c>
       <c r="H37" t="n">
-        <v>110.9943444312342</v>
+        <v>48.71677177089497</v>
       </c>
       <c r="I37" t="n">
-        <v>48.71677177089499</v>
+        <v>48.71677177089497</v>
       </c>
       <c r="J37" t="n">
-        <v>196.086283195932</v>
+        <v>109.5065980312421</v>
       </c>
       <c r="K37" t="n">
-        <v>570.7410962095564</v>
+        <v>209.4029564737309</v>
       </c>
       <c r="L37" t="n">
-        <v>1116.78392367145</v>
+        <v>337.2359021676639</v>
       </c>
       <c r="M37" t="n">
-        <v>1251.565841404145</v>
+        <v>779.6332862506546</v>
       </c>
       <c r="N37" t="n">
-        <v>1532.78331349572</v>
+        <v>1353.469194389709</v>
       </c>
       <c r="O37" t="n">
-        <v>2073.985315543396</v>
+        <v>1894.671196437385</v>
       </c>
       <c r="P37" t="n">
-        <v>2177.977581014356</v>
+        <v>2346.170355878687</v>
       </c>
       <c r="Q37" t="n">
-        <v>2418.169210152066</v>
+        <v>2418.169210152065</v>
       </c>
       <c r="R37" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544748</v>
       </c>
       <c r="S37" t="n">
-        <v>2316.327358350702</v>
+        <v>2291.88591871671</v>
       </c>
       <c r="T37" t="n">
-        <v>2316.327358350702</v>
+        <v>2049.75487525331</v>
       </c>
       <c r="U37" t="n">
-        <v>2316.327358350702</v>
+        <v>1771.369726459073</v>
       </c>
       <c r="V37" t="n">
-        <v>2029.371850221133</v>
+        <v>1484.414218329503</v>
       </c>
       <c r="W37" t="n">
-        <v>1757.345445807424</v>
+        <v>1212.387813915795</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.953691140837</v>
+        <v>1119.084136506563</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.534020454945</v>
+        <v>891.6644658206708</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1027.130048682717</v>
+        <v>1187.502047338883</v>
       </c>
       <c r="C38" t="n">
-        <v>1027.130048682717</v>
+        <v>1187.502047338883</v>
       </c>
       <c r="D38" t="n">
-        <v>1027.130048682717</v>
+        <v>751.5922625133276</v>
       </c>
       <c r="E38" t="n">
-        <v>593.3553038410123</v>
+        <v>317.8175176716227</v>
       </c>
       <c r="F38" t="n">
-        <v>165.48787425022</v>
+        <v>317.8175176716227</v>
       </c>
       <c r="G38" t="n">
-        <v>165.48787425022</v>
+        <v>317.8175176716227</v>
       </c>
       <c r="H38" t="n">
-        <v>48.716771770895</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="I38" t="n">
-        <v>122.2071970529796</v>
+        <v>122.2071970529794</v>
       </c>
       <c r="J38" t="n">
-        <v>284.896478104198</v>
+        <v>284.8964781041979</v>
       </c>
       <c r="K38" t="n">
-        <v>528.7255375544867</v>
+        <v>528.7255375544863</v>
       </c>
       <c r="L38" t="n">
-        <v>831.2170466428697</v>
+        <v>831.2170466428694</v>
       </c>
       <c r="M38" t="n">
         <v>1167.797134377708</v>
       </c>
       <c r="N38" t="n">
-        <v>1509.823439815745</v>
+        <v>1509.823439815744</v>
       </c>
       <c r="O38" t="n">
         <v>1832.789181316721</v>
       </c>
       <c r="P38" t="n">
-        <v>2108.432969611295</v>
+        <v>2108.432969611294</v>
       </c>
       <c r="Q38" t="n">
-        <v>2315.429975153288</v>
+        <v>2315.429975153287</v>
       </c>
       <c r="R38" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="S38" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="T38" t="n">
-        <v>2224.332692934145</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="U38" t="n">
-        <v>2224.332692934145</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="V38" t="n">
-        <v>1861.715742867972</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="W38" t="n">
-        <v>1861.715742867972</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="X38" t="n">
-        <v>1861.715742867972</v>
+        <v>2022.087741524138</v>
       </c>
       <c r="Y38" t="n">
-        <v>1453.429619167625</v>
+        <v>1613.801617823791</v>
       </c>
     </row>
     <row r="39">
@@ -7244,37 +7244,37 @@
         <v>164.684848684769</v>
       </c>
       <c r="G39" t="n">
-        <v>80.34618184019172</v>
+        <v>80.3461818401917</v>
       </c>
       <c r="H39" t="n">
-        <v>48.716771770895</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="I39" t="n">
-        <v>48.716771770895</v>
+        <v>84.0279679502036</v>
       </c>
       <c r="J39" t="n">
-        <v>145.6133930318488</v>
+        <v>180.9245892111574</v>
       </c>
       <c r="K39" t="n">
-        <v>311.225152233582</v>
+        <v>346.5363484128906</v>
       </c>
       <c r="L39" t="n">
-        <v>533.9106002408017</v>
+        <v>569.2217964201101</v>
       </c>
       <c r="M39" t="n">
-        <v>793.7740146712041</v>
+        <v>829.0852108505126</v>
       </c>
       <c r="N39" t="n">
-        <v>1060.515240433857</v>
+        <v>1095.826436613165</v>
       </c>
       <c r="O39" t="n">
-        <v>1286.641989661683</v>
+        <v>1339.842546057618</v>
       </c>
       <c r="P39" t="n">
-        <v>1482.486430331076</v>
+        <v>1535.686986727011</v>
       </c>
       <c r="Q39" t="n">
-        <v>1613.403252446057</v>
+        <v>1666.603808841992</v>
       </c>
       <c r="R39" t="n">
         <v>1677.080359849152</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>751.2943585222564</v>
+        <v>547.7577698443292</v>
       </c>
       <c r="C40" t="n">
-        <v>578.7326470054813</v>
+        <v>547.7577698443292</v>
       </c>
       <c r="D40" t="n">
-        <v>412.854654207004</v>
+        <v>381.8797770458519</v>
       </c>
       <c r="E40" t="n">
-        <v>243.0966504577413</v>
+        <v>381.8797770458519</v>
       </c>
       <c r="F40" t="n">
-        <v>243.0966504577413</v>
+        <v>381.8797770458519</v>
       </c>
       <c r="G40" t="n">
-        <v>243.0966504577413</v>
+        <v>217.1657878703944</v>
       </c>
       <c r="H40" t="n">
-        <v>110.9943444312343</v>
+        <v>110.9943444312342</v>
       </c>
       <c r="I40" t="n">
-        <v>48.716771770895</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="J40" t="n">
         <v>196.086283195932</v>
       </c>
       <c r="K40" t="n">
-        <v>570.7410962095564</v>
+        <v>372.8745693493793</v>
       </c>
       <c r="L40" t="n">
-        <v>1116.78392367145</v>
+        <v>918.9173968112733</v>
       </c>
       <c r="M40" t="n">
-        <v>1378.616654582447</v>
+        <v>1053.699314543968</v>
       </c>
       <c r="N40" t="n">
-        <v>1952.452562721501</v>
+        <v>1185.276419525377</v>
       </c>
       <c r="O40" t="n">
-        <v>2073.985315543397</v>
+        <v>1726.478421573054</v>
       </c>
       <c r="P40" t="n">
-        <v>2177.977581014357</v>
+        <v>2177.977581014356</v>
       </c>
       <c r="Q40" t="n">
-        <v>2418.169210152067</v>
+        <v>2418.169210152066</v>
       </c>
       <c r="R40" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="S40" t="n">
-        <v>2435.83858854475</v>
+        <v>2291.885918716711</v>
       </c>
       <c r="T40" t="n">
-        <v>2193.70754508135</v>
+        <v>2049.754875253311</v>
       </c>
       <c r="U40" t="n">
-        <v>1915.322396287112</v>
+        <v>1771.369726459074</v>
       </c>
       <c r="V40" t="n">
-        <v>1687.950807007431</v>
+        <v>1484.414218329504</v>
       </c>
       <c r="W40" t="n">
-        <v>1415.924402593723</v>
+        <v>1212.387813915796</v>
       </c>
       <c r="X40" t="n">
-        <v>1170.532647927135</v>
+        <v>966.9960592492082</v>
       </c>
       <c r="Y40" t="n">
-        <v>943.1129772412435</v>
+        <v>739.5763885633164</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1393.17766786027</v>
+        <v>1784.411203845524</v>
       </c>
       <c r="C41" t="n">
-        <v>955.0351950436934</v>
+        <v>1346.268731028948</v>
       </c>
       <c r="D41" t="n">
-        <v>519.1254102181379</v>
+        <v>910.3589462033921</v>
       </c>
       <c r="E41" t="n">
-        <v>317.8175176716226</v>
+        <v>476.5842013616872</v>
       </c>
       <c r="F41" t="n">
-        <v>317.8175176716226</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="G41" t="n">
-        <v>317.8175176716226</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="H41" t="n">
         <v>48.71677177089499</v>
       </c>
       <c r="I41" t="n">
-        <v>122.207197052979</v>
+        <v>122.2071970529793</v>
       </c>
       <c r="J41" t="n">
-        <v>284.8964781041976</v>
+        <v>284.8964781041977</v>
       </c>
       <c r="K41" t="n">
-        <v>528.7255375544862</v>
+        <v>528.7255375544863</v>
       </c>
       <c r="L41" t="n">
         <v>831.2170466428694</v>
@@ -7423,7 +7423,7 @@
         <v>1167.797134377708</v>
       </c>
       <c r="N41" t="n">
-        <v>1509.823439815745</v>
+        <v>1509.823439815744</v>
       </c>
       <c r="O41" t="n">
         <v>1832.789181316721</v>
@@ -7435,28 +7435,28 @@
         <v>2315.429975153287</v>
       </c>
       <c r="R41" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="S41" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="T41" t="n">
-        <v>2224.332692934145</v>
+        <v>2224.332692934144</v>
       </c>
       <c r="U41" t="n">
-        <v>2224.332692934145</v>
+        <v>2210.710774330432</v>
       </c>
       <c r="V41" t="n">
-        <v>2224.332692934145</v>
+        <v>2210.710774330432</v>
       </c>
       <c r="W41" t="n">
-        <v>1819.477238345178</v>
+        <v>2210.710774330432</v>
       </c>
       <c r="X41" t="n">
-        <v>1819.477238345178</v>
+        <v>2210.710774330432</v>
       </c>
       <c r="Y41" t="n">
-        <v>1819.477238345178</v>
+        <v>2210.710774330432</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1302.494080454056</v>
+        <v>543.7358517584581</v>
       </c>
       <c r="C42" t="n">
-        <v>1196.037619290698</v>
+        <v>437.2793905951004</v>
       </c>
       <c r="D42" t="n">
-        <v>1100.947330437251</v>
+        <v>342.1891017416537</v>
       </c>
       <c r="E42" t="n">
-        <v>1006.826915764205</v>
+        <v>248.0686870686074</v>
       </c>
       <c r="F42" t="n">
-        <v>923.4430773803667</v>
+        <v>164.684848684769</v>
       </c>
       <c r="G42" t="n">
-        <v>839.1044105357894</v>
+        <v>80.3461818401917</v>
       </c>
       <c r="H42" t="n">
-        <v>807.4750004664927</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="I42" t="n">
-        <v>842.7861966458014</v>
+        <v>84.0279679502036</v>
       </c>
       <c r="J42" t="n">
-        <v>939.6828179067552</v>
+        <v>127.7240328152226</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.294577108489</v>
+        <v>293.3357920169558</v>
       </c>
       <c r="L42" t="n">
-        <v>1327.980025115708</v>
+        <v>516.0212400241753</v>
       </c>
       <c r="M42" t="n">
-        <v>1534.642883150175</v>
+        <v>775.8846544545777</v>
       </c>
       <c r="N42" t="n">
-        <v>1801.384108912828</v>
+        <v>1042.62588021723</v>
       </c>
       <c r="O42" t="n">
-        <v>2045.40021835728</v>
+        <v>1286.641989661683</v>
       </c>
       <c r="P42" t="n">
-        <v>2241.244659026674</v>
+        <v>1482.486430331076</v>
       </c>
       <c r="Q42" t="n">
-        <v>2372.161481141655</v>
+        <v>1613.403252446057</v>
       </c>
       <c r="R42" t="n">
-        <v>2435.83858854475</v>
+        <v>1677.080359849152</v>
       </c>
       <c r="S42" t="n">
-        <v>2391.819997203336</v>
+        <v>1633.061768507739</v>
       </c>
       <c r="T42" t="n">
-        <v>2265.859172109423</v>
+        <v>1507.100943413825</v>
       </c>
       <c r="U42" t="n">
-        <v>2089.591468720525</v>
+        <v>1330.833240024927</v>
       </c>
       <c r="V42" t="n">
-        <v>1890.473950782524</v>
+        <v>1131.715722086926</v>
       </c>
       <c r="W42" t="n">
-        <v>1705.151196515718</v>
+        <v>946.3929678201205</v>
       </c>
       <c r="X42" t="n">
-        <v>1550.283760754598</v>
+        <v>791.5255320590005</v>
       </c>
       <c r="Y42" t="n">
-        <v>1423.797981533819</v>
+        <v>665.0397528382213</v>
       </c>
     </row>
     <row r="43">
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1092.715401735958</v>
+        <v>584.5176936714427</v>
       </c>
       <c r="C43" t="n">
-        <v>920.1536902191827</v>
+        <v>584.5176936714427</v>
       </c>
       <c r="D43" t="n">
-        <v>754.2756974207055</v>
+        <v>584.5176936714427</v>
       </c>
       <c r="E43" t="n">
         <v>584.5176936714427</v>
@@ -7572,19 +7572,19 @@
         <v>196.086283195932</v>
       </c>
       <c r="K43" t="n">
-        <v>295.9826416384208</v>
+        <v>405.0414496134567</v>
       </c>
       <c r="L43" t="n">
-        <v>644.8513685179612</v>
+        <v>532.8743953073897</v>
       </c>
       <c r="M43" t="n">
-        <v>779.6332862506558</v>
+        <v>1127.140180220997</v>
       </c>
       <c r="N43" t="n">
-        <v>1353.46919438971</v>
+        <v>1700.976088360052</v>
       </c>
       <c r="O43" t="n">
-        <v>1894.671196437387</v>
+        <v>2242.178090407728</v>
       </c>
       <c r="P43" t="n">
         <v>2346.170355878688</v>
@@ -7593,28 +7593,28 @@
         <v>2418.169210152066</v>
       </c>
       <c r="R43" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="S43" t="n">
-        <v>2417.605261203461</v>
+        <v>2291.885918716711</v>
       </c>
       <c r="T43" t="n">
-        <v>2175.474217740061</v>
+        <v>2049.754875253311</v>
       </c>
       <c r="U43" t="n">
-        <v>1897.089068945823</v>
+        <v>1771.369726459074</v>
       </c>
       <c r="V43" t="n">
-        <v>1610.133560816254</v>
+        <v>1521.174142156618</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.107156402545</v>
+        <v>1249.147737742909</v>
       </c>
       <c r="X43" t="n">
-        <v>1092.715401735958</v>
+        <v>1003.755983076322</v>
       </c>
       <c r="Y43" t="n">
-        <v>1092.715401735958</v>
+        <v>776.3363123904298</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1191.869775313755</v>
+        <v>1091.596122866598</v>
       </c>
       <c r="C44" t="n">
-        <v>753.7273024971781</v>
+        <v>1091.596122866598</v>
       </c>
       <c r="D44" t="n">
-        <v>317.8175176716226</v>
+        <v>910.3589462033921</v>
       </c>
       <c r="E44" t="n">
-        <v>317.8175176716226</v>
+        <v>476.5842013616872</v>
       </c>
       <c r="F44" t="n">
-        <v>317.8175176716226</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="G44" t="n">
-        <v>317.8175176716226</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="H44" t="n">
-        <v>48.716771770895</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="I44" t="n">
         <v>122.2071970529792</v>
@@ -7651,49 +7651,49 @@
         <v>284.896478104198</v>
       </c>
       <c r="K44" t="n">
-        <v>528.7255375544867</v>
+        <v>528.7255375544866</v>
       </c>
       <c r="L44" t="n">
-        <v>831.2170466428698</v>
+        <v>831.2170466428696</v>
       </c>
       <c r="M44" t="n">
         <v>1167.797134377708</v>
       </c>
       <c r="N44" t="n">
-        <v>1509.823439815745</v>
+        <v>1509.823439815744</v>
       </c>
       <c r="O44" t="n">
         <v>1832.789181316721</v>
       </c>
       <c r="P44" t="n">
-        <v>2108.432969611295</v>
+        <v>2108.432969611294</v>
       </c>
       <c r="Q44" t="n">
-        <v>2315.429975153288</v>
+        <v>2315.429975153287</v>
       </c>
       <c r="R44" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="S44" t="n">
-        <v>2396.753554689517</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="T44" t="n">
         <v>2185.247659078912</v>
       </c>
       <c r="U44" t="n">
-        <v>1926.181817051854</v>
+        <v>1926.181817051853</v>
       </c>
       <c r="V44" t="n">
-        <v>1926.181817051854</v>
+        <v>1926.181817051853</v>
       </c>
       <c r="W44" t="n">
-        <v>1521.326362462887</v>
+        <v>1926.181817051853</v>
       </c>
       <c r="X44" t="n">
-        <v>1521.326362462887</v>
+        <v>1926.181817051853</v>
       </c>
       <c r="Y44" t="n">
-        <v>1521.326362462887</v>
+        <v>1517.895693351506</v>
       </c>
     </row>
     <row r="45">
@@ -7718,37 +7718,37 @@
         <v>164.684848684769</v>
       </c>
       <c r="G45" t="n">
-        <v>80.34618184019172</v>
+        <v>80.3461818401917</v>
       </c>
       <c r="H45" t="n">
-        <v>48.716771770895</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="I45" t="n">
-        <v>84.02796795020365</v>
+        <v>84.0279679502036</v>
       </c>
       <c r="J45" t="n">
-        <v>127.724032815222</v>
+        <v>180.9245892111574</v>
       </c>
       <c r="K45" t="n">
-        <v>293.3357920169553</v>
+        <v>346.5363484128906</v>
       </c>
       <c r="L45" t="n">
-        <v>516.0212400241749</v>
+        <v>569.2217964201101</v>
       </c>
       <c r="M45" t="n">
-        <v>775.8846544545773</v>
+        <v>829.0852108505126</v>
       </c>
       <c r="N45" t="n">
-        <v>1042.62588021723</v>
+        <v>1095.826436613165</v>
       </c>
       <c r="O45" t="n">
-        <v>1286.641989661683</v>
+        <v>1339.842546057618</v>
       </c>
       <c r="P45" t="n">
-        <v>1482.486430331076</v>
+        <v>1535.686986727011</v>
       </c>
       <c r="Q45" t="n">
-        <v>1613.403252446057</v>
+        <v>1666.603808841992</v>
       </c>
       <c r="R45" t="n">
         <v>1677.080359849152</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>739.5763885633173</v>
+        <v>1092.715401735958</v>
       </c>
       <c r="C46" t="n">
-        <v>567.0146770465423</v>
+        <v>920.1536902191827</v>
       </c>
       <c r="D46" t="n">
-        <v>567.0146770465423</v>
+        <v>754.2756974207055</v>
       </c>
       <c r="E46" t="n">
-        <v>397.2566732972795</v>
+        <v>584.5176936714427</v>
       </c>
       <c r="F46" t="n">
-        <v>220.5496192590357</v>
+        <v>407.8106396331989</v>
       </c>
       <c r="G46" t="n">
-        <v>55.83563008357814</v>
+        <v>243.0966504577413</v>
       </c>
       <c r="H46" t="n">
-        <v>55.83563008357814</v>
+        <v>110.9943444312342</v>
       </c>
       <c r="I46" t="n">
-        <v>48.716771770895</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="J46" t="n">
-        <v>196.086283195932</v>
+        <v>109.5065980312421</v>
       </c>
       <c r="K46" t="n">
-        <v>570.7410962095564</v>
+        <v>209.4029564737309</v>
       </c>
       <c r="L46" t="n">
-        <v>698.5740419034895</v>
+        <v>532.8743953073897</v>
       </c>
       <c r="M46" t="n">
-        <v>1292.839826817097</v>
+        <v>1127.140180220997</v>
       </c>
       <c r="N46" t="n">
-        <v>1866.675734956151</v>
+        <v>1700.976088360052</v>
       </c>
       <c r="O46" t="n">
-        <v>1988.208487778047</v>
+        <v>2242.178090407728</v>
       </c>
       <c r="P46" t="n">
-        <v>2177.977581014357</v>
+        <v>2346.170355878688</v>
       </c>
       <c r="Q46" t="n">
-        <v>2418.169210152067</v>
+        <v>2418.169210152066</v>
       </c>
       <c r="R46" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="S46" t="n">
-        <v>2291.885918716712</v>
+        <v>2291.885918716711</v>
       </c>
       <c r="T46" t="n">
-        <v>2049.754875253312</v>
+        <v>2049.754875253311</v>
       </c>
       <c r="U46" t="n">
-        <v>1771.369726459075</v>
+        <v>2029.371850221133</v>
       </c>
       <c r="V46" t="n">
-        <v>1484.414218329505</v>
+        <v>2029.371850221133</v>
       </c>
       <c r="W46" t="n">
-        <v>1212.387813915797</v>
+        <v>1757.345445807424</v>
       </c>
       <c r="X46" t="n">
-        <v>966.9960592492091</v>
+        <v>1511.953691140837</v>
       </c>
       <c r="Y46" t="n">
-        <v>739.5763885633173</v>
+        <v>1284.534020454945</v>
       </c>
     </row>
   </sheetData>
@@ -8850,7 +8850,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>110.1604120959959</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -8862,13 +8862,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>86.64326036904026</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9084,19 +9084,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>310.7226932831284</v>
       </c>
       <c r="M16" t="n">
-        <v>222.5690453613981</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512944</v>
@@ -9105,7 +9105,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9324,22 +9324,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>15.78984621807388</v>
+        <v>197.6146395350763</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9561,13 +9561,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>197.6146395350765</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -9576,10 +9576,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>33.18890078703225</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>165.1228412885328</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
@@ -9810,7 +9810,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>311.4973813437309</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
@@ -10035,25 +10035,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>110.1604120959959</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>224.0431539046513</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -10284,13 +10284,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>13.15998824863027</v>
+        <v>343.9891795902747</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10509,25 +10509,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>165.1228412885337</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>439.698178769368</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>310.7226932831275</v>
       </c>
       <c r="N37" t="n">
-        <v>151.1518859698633</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10983,22 +10983,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>77.66861384945298</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>128.3341547255575</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821538</v>
@@ -11220,13 +11220,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>110.1604120959959</v>
       </c>
       <c r="L43" t="n">
-        <v>223.2684658440479</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -11235,7 +11235,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11454,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>197.6146395350765</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645587</v>
@@ -11469,13 +11469,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>86.64326036904049</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.4476524459058</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>266.4097384417204</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>38.69418351668035</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.3908366544989</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4751836067882</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>184.3052765640623</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>242.3094975022875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.09839432957637</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>61.65479693373586</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.5131431297577</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>239.7097330287659</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>238.1435256102107</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>24.96093102621211</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.4476524459058</v>
       </c>
       <c r="H14" t="n">
         <v>266.4097384417204</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>38.69418351668035</v>
+        <v>38.69418351668037</v>
       </c>
       <c r="T14" t="n">
-        <v>177.0190584123345</v>
+        <v>209.3908366544989</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>44.32790539891161</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.066849283703</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>130.781282966242</v>
       </c>
       <c r="I16" t="n">
-        <v>61.65479693373585</v>
+        <v>61.65479693373586</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.5131431297577</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>41.49198325927378</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23734,22 +23734,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>111.4480164670244</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>43.53320236954642</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.4476524459058</v>
       </c>
       <c r="H17" t="n">
-        <v>266.4097384417204</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,16 +23785,16 @@
         <v>38.69418351668036</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.3908366544989</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4751836067882</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>130.781282966242</v>
       </c>
       <c r="I19" t="n">
-        <v>20.5144493437335</v>
+        <v>61.65479693373585</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>19.78591351853891</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,13 +23977,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>270.9005686319313</v>
+        <v>395.4476524459058</v>
       </c>
       <c r="H20" t="n">
         <v>266.4097384417204</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>38.69418351668035</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.3908366544989</v>
       </c>
       <c r="U20" t="n">
         <v>256.4751836067882</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>230.7686862309886</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>130.781282966242</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>61.65479693373585</v>
+        <v>61.65479693373586</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>172.131992174872</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>113.0128426093177</v>
       </c>
     </row>
     <row r="23">
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.4476524459058</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>38.69418351668035</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.3908366544989</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4751836067882</v>
+        <v>98.70940685349942</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -24271,10 +24271,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0.3446318445759857</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>132.3510055822989</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>130.781282966242</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>61.65479693373585</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>157.1715431409371</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>203.421261717032</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.4476524459058</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>266.4097384417204</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>38.69418351668035</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>209.3908366544989</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4751836067882</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>230.9512033996057</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24609,19 +24609,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>132.3510055822971</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>3.060478926956222</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>61.65479693373586</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.5131431297577</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>395.4476524459058</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>266.4097384417204</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>38.69418351668035</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.3908366544989</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4751836067882</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>71.14378753413268</v>
       </c>
       <c r="Y29" t="n">
-        <v>141.9452229485435</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>69.83025449309194</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>101.9944166062203</v>
       </c>
       <c r="H31" t="n">
         <v>130.781282966242</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.5131431297577</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>383.7139736331288</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>193.4319875736968</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>395.4476524459058</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>266.4097384417204</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>38.69418351668035</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>209.3908366544989</v>
@@ -24976,16 +24976,16 @@
         <v>256.4751836067882</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>15.70467935560379</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>163.066849283703</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>130.781282966242</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>61.65479693373586</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.5131431297577</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>41.49198325927384</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25156,10 +25156,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>266.4097384417204</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>38.69418351668037</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4751836067882</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>320.3425284717511</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>343.4247944012131</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.066849283703</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>61.65479693373586</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.19702523765061</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>239.7097330287659</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6012973062951</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>150.5671964847817</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25396,19 +25396,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>395.4476524459058</v>
       </c>
       <c r="H38" t="n">
-        <v>150.8063469871886</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>38.69418351668035</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.3908366544989</v>
       </c>
       <c r="U38" t="n">
         <v>256.4751836067882</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>44.03188375275727</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.066849283703</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>25.67155396147346</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.5131431297577</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>58.98807966138935</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25636,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>230.1421837722377</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>395.4476524459058</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>266.4097384417204</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>38.69418351668035</v>
+        <v>38.69418351668037</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4751836067882</v>
+        <v>242.9894841891129</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>124.4621490618819</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>36.39232458884226</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>95.874553502418</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>252.1258820807257</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>395.4476524459058</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>266.4097384417204</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>130.781282966242</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>54.60712720417954</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>255.4221025244385</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>310395.1513190819</v>
+        <v>310395.1513190818</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>310395.1513190818</v>
+        <v>310395.1513190817</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>310395.1513190818</v>
+        <v>310395.1513190817</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>310395.1513190818</v>
+        <v>310395.1513190817</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>310395.1513190818</v>
+        <v>310395.1513190817</v>
       </c>
     </row>
     <row r="15">
@@ -26322,31 +26322,31 @@
         <v>444876.9379563229</v>
       </c>
       <c r="E2" t="n">
-        <v>274047.378456193</v>
+        <v>274047.3784561928</v>
       </c>
       <c r="F2" t="n">
-        <v>274047.378456193</v>
+        <v>274047.3784561928</v>
       </c>
       <c r="G2" t="n">
-        <v>274047.3784561929</v>
+        <v>274047.3784561928</v>
       </c>
       <c r="H2" t="n">
-        <v>274047.3784561929</v>
+        <v>274047.3784561928</v>
       </c>
       <c r="I2" t="n">
         <v>274047.3784561928</v>
       </c>
       <c r="J2" t="n">
-        <v>274047.378456193</v>
+        <v>274047.3784561928</v>
       </c>
       <c r="K2" t="n">
-        <v>274047.378456193</v>
+        <v>274047.3784561928</v>
       </c>
       <c r="L2" t="n">
         <v>274047.3784561928</v>
       </c>
       <c r="M2" t="n">
-        <v>274047.3784561928</v>
+        <v>274047.3784561927</v>
       </c>
       <c r="N2" t="n">
         <v>274047.3784561928</v>
@@ -26355,7 +26355,7 @@
         <v>274047.3784561928</v>
       </c>
       <c r="P2" t="n">
-        <v>274047.378456193</v>
+        <v>274047.3784561928</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>568764.8628797386</v>
+        <v>568764.8628797383</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>151755.1799049265</v>
+        <v>151755.1799049264</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
         <v>20706.65464870918</v>
       </c>
       <c r="F4" t="n">
-        <v>20706.65464870919</v>
+        <v>20706.65464870918</v>
       </c>
       <c r="G4" t="n">
         <v>20706.65464870918</v>
       </c>
       <c r="H4" t="n">
-        <v>20706.65464870919</v>
+        <v>20706.65464870918</v>
       </c>
       <c r="I4" t="n">
+        <v>20706.65464870917</v>
+      </c>
+      <c r="J4" t="n">
         <v>20706.65464870918</v>
       </c>
-      <c r="J4" t="n">
-        <v>20706.65464870919</v>
-      </c>
       <c r="K4" t="n">
-        <v>20706.65464870919</v>
+        <v>20706.65464870918</v>
       </c>
       <c r="L4" t="n">
         <v>20706.65464870918</v>
       </c>
       <c r="M4" t="n">
+        <v>20706.65464870917</v>
+      </c>
+      <c r="N4" t="n">
         <v>20706.65464870918</v>
-      </c>
-      <c r="N4" t="n">
-        <v>20706.65464870919</v>
       </c>
       <c r="O4" t="n">
         <v>20706.65464870918</v>
       </c>
       <c r="P4" t="n">
-        <v>20706.65464870919</v>
+        <v>20706.65464870918</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>47524.27844205809</v>
+        <v>47524.27844205806</v>
       </c>
       <c r="F5" t="n">
-        <v>47524.27844205807</v>
+        <v>47524.27844205806</v>
       </c>
       <c r="G5" t="n">
         <v>47524.27844205807</v>
       </c>
       <c r="H5" t="n">
-        <v>47524.27844205807</v>
+        <v>47524.27844205806</v>
       </c>
       <c r="I5" t="n">
-        <v>47524.27844205807</v>
+        <v>47524.27844205805</v>
       </c>
       <c r="J5" t="n">
-        <v>47524.27844205809</v>
+        <v>47524.27844205806</v>
       </c>
       <c r="K5" t="n">
-        <v>47524.27844205809</v>
+        <v>47524.27844205806</v>
       </c>
       <c r="L5" t="n">
-        <v>47524.27844205809</v>
+        <v>47524.27844205806</v>
       </c>
       <c r="M5" t="n">
-        <v>47524.27844205807</v>
+        <v>47524.27844205805</v>
       </c>
       <c r="N5" t="n">
-        <v>47524.27844205809</v>
+        <v>47524.27844205806</v>
       </c>
       <c r="O5" t="n">
-        <v>47524.27844205807</v>
+        <v>47524.27844205806</v>
       </c>
       <c r="P5" t="n">
-        <v>47524.27844205809</v>
+        <v>47524.27844205806</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112518.6216444901</v>
+        <v>112486.7149269885</v>
       </c>
       <c r="C6" t="n">
-        <v>112518.62164449</v>
+        <v>112486.7149269884</v>
       </c>
       <c r="D6" t="n">
-        <v>112518.6216444901</v>
+        <v>112486.7149269884</v>
       </c>
       <c r="E6" t="n">
-        <v>-362948.4175143128</v>
+        <v>-363482.764112697</v>
       </c>
       <c r="F6" t="n">
-        <v>205816.4453654257</v>
+        <v>205282.0987670413</v>
       </c>
       <c r="G6" t="n">
-        <v>205816.4453654257</v>
+        <v>205282.0987670413</v>
       </c>
       <c r="H6" t="n">
-        <v>205816.4453654257</v>
+        <v>205282.0987670413</v>
       </c>
       <c r="I6" t="n">
-        <v>205816.4453654256</v>
+        <v>205282.0987670413</v>
       </c>
       <c r="J6" t="n">
-        <v>205816.4453654257</v>
+        <v>205282.0987670413</v>
       </c>
       <c r="K6" t="n">
-        <v>205816.4453654257</v>
+        <v>205282.0987670413</v>
       </c>
       <c r="L6" t="n">
-        <v>205816.4453654256</v>
+        <v>205282.0987670413</v>
       </c>
       <c r="M6" t="n">
-        <v>54061.26546049915</v>
+        <v>53526.91886211478</v>
       </c>
       <c r="N6" t="n">
-        <v>205816.4453654256</v>
+        <v>205282.0987670413</v>
       </c>
       <c r="O6" t="n">
-        <v>205816.4453654255</v>
+        <v>205282.0987670413</v>
       </c>
       <c r="P6" t="n">
-        <v>205816.4453654257</v>
+        <v>205282.0987670413</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>481.6299034943981</v>
+        <v>481.629903494398</v>
       </c>
       <c r="F3" t="n">
-        <v>481.6299034943981</v>
+        <v>481.629903494398</v>
       </c>
       <c r="G3" t="n">
         <v>481.6299034943981</v>
       </c>
       <c r="H3" t="n">
-        <v>481.6299034943981</v>
+        <v>481.629903494398</v>
       </c>
       <c r="I3" t="n">
-        <v>481.6299034943981</v>
+        <v>481.629903494398</v>
       </c>
       <c r="J3" t="n">
-        <v>481.6299034943982</v>
+        <v>481.629903494398</v>
       </c>
       <c r="K3" t="n">
-        <v>481.6299034943981</v>
+        <v>481.629903494398</v>
       </c>
       <c r="L3" t="n">
-        <v>481.6299034943981</v>
+        <v>481.629903494398</v>
       </c>
       <c r="M3" t="n">
-        <v>481.6299034943981</v>
+        <v>481.629903494398</v>
       </c>
       <c r="N3" t="n">
-        <v>481.6299034943981</v>
+        <v>481.629903494398</v>
       </c>
       <c r="O3" t="n">
-        <v>481.6299034943981</v>
+        <v>481.629903494398</v>
       </c>
       <c r="P3" t="n">
-        <v>481.6299034943982</v>
+        <v>481.629903494398</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>608.9596471361875</v>
+        <v>608.9596471361873</v>
       </c>
       <c r="F4" t="n">
-        <v>608.9596471361874</v>
+        <v>608.9596471361873</v>
       </c>
       <c r="G4" t="n">
-        <v>608.9596471361874</v>
+        <v>608.9596471361873</v>
       </c>
       <c r="H4" t="n">
-        <v>608.9596471361874</v>
+        <v>608.9596471361873</v>
       </c>
       <c r="I4" t="n">
+        <v>608.9596471361871</v>
+      </c>
+      <c r="J4" t="n">
         <v>608.9596471361873</v>
       </c>
-      <c r="J4" t="n">
-        <v>608.9596471361875</v>
-      </c>
       <c r="K4" t="n">
-        <v>608.9596471361875</v>
+        <v>608.9596471361873</v>
       </c>
       <c r="L4" t="n">
-        <v>608.9596471361875</v>
+        <v>608.9596471361873</v>
       </c>
       <c r="M4" t="n">
-        <v>608.9596471361874</v>
+        <v>608.9596471361871</v>
       </c>
       <c r="N4" t="n">
-        <v>608.9596471361875</v>
+        <v>608.9596471361873</v>
       </c>
       <c r="O4" t="n">
-        <v>608.9596471361874</v>
+        <v>608.9596471361873</v>
       </c>
       <c r="P4" t="n">
-        <v>608.9596471361875</v>
+        <v>608.9596471361873</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>481.6299034943981</v>
+        <v>481.629903494398</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>608.9596471361875</v>
+        <v>608.9596471361873</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>608.9596471361874</v>
+        <v>608.9596471361872</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>608.9596471361875</v>
+        <v>608.9596471361873</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.936200617062906</v>
+        <v>1.936200617062905</v>
       </c>
       <c r="H11" t="n">
-        <v>19.82911456949549</v>
+        <v>19.82911456949548</v>
       </c>
       <c r="I11" t="n">
-        <v>74.64537428931774</v>
+        <v>74.64537428931772</v>
       </c>
       <c r="J11" t="n">
         <v>164.3326071224429</v>
       </c>
       <c r="K11" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427157</v>
       </c>
       <c r="L11" t="n">
-        <v>305.5469788771547</v>
+        <v>305.5469788771546</v>
       </c>
       <c r="M11" t="n">
-        <v>339.9798866008472</v>
+        <v>339.9798866008471</v>
       </c>
       <c r="N11" t="n">
-        <v>345.4811166040772</v>
+        <v>345.481116604077</v>
       </c>
       <c r="O11" t="n">
-        <v>326.2280217181579</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P11" t="n">
-        <v>278.4280689844174</v>
+        <v>278.4280689844173</v>
       </c>
       <c r="Q11" t="n">
-        <v>209.087884385852</v>
+        <v>209.0878843858519</v>
       </c>
       <c r="R11" t="n">
-        <v>121.6248620115779</v>
+        <v>121.6248620115778</v>
       </c>
       <c r="S11" t="n">
-        <v>44.12117156132101</v>
+        <v>44.12117156132099</v>
       </c>
       <c r="T11" t="n">
-        <v>8.475718201192874</v>
+        <v>8.475718201192871</v>
       </c>
       <c r="U11" t="n">
         <v>0.1548960493650324</v>
@@ -31834,46 +31834,46 @@
         <v>1.035958660346441</v>
       </c>
       <c r="H12" t="n">
-        <v>10.0051796933459</v>
+        <v>10.00517969334589</v>
       </c>
       <c r="I12" t="n">
-        <v>35.66787492859459</v>
+        <v>35.66787492859457</v>
       </c>
       <c r="J12" t="n">
-        <v>97.87537501106446</v>
+        <v>97.87537501106442</v>
       </c>
       <c r="K12" t="n">
         <v>167.284605254276</v>
       </c>
       <c r="L12" t="n">
-        <v>224.9347959668885</v>
+        <v>224.9347959668884</v>
       </c>
       <c r="M12" t="n">
-        <v>208.7503616509771</v>
+        <v>262.4882974044469</v>
       </c>
       <c r="N12" t="n">
-        <v>269.4355815784369</v>
+        <v>215.6976458249674</v>
       </c>
       <c r="O12" t="n">
-        <v>246.4809186307605</v>
+        <v>246.4809186307604</v>
       </c>
       <c r="P12" t="n">
-        <v>197.8226673428218</v>
+        <v>197.8226673428217</v>
       </c>
       <c r="Q12" t="n">
-        <v>132.2392142575563</v>
+        <v>132.2392142575562</v>
       </c>
       <c r="R12" t="n">
-        <v>64.32031050817645</v>
+        <v>64.32031050817642</v>
       </c>
       <c r="S12" t="n">
-        <v>19.24247774810165</v>
+        <v>19.24247774810164</v>
       </c>
       <c r="T12" t="n">
-        <v>4.175640389729733</v>
+        <v>4.175640389729732</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06815517502279222</v>
+        <v>0.0681551750227922</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8685129407276031</v>
+        <v>0.8685129407276028</v>
       </c>
       <c r="H13" t="n">
-        <v>7.721869600287241</v>
+        <v>7.721869600287238</v>
       </c>
       <c r="I13" t="n">
-        <v>26.11855279933556</v>
+        <v>26.11855279933555</v>
       </c>
       <c r="J13" t="n">
-        <v>61.40386490944154</v>
+        <v>61.40386490944152</v>
       </c>
       <c r="K13" t="n">
         <v>100.9054125681706</v>
@@ -31928,10 +31928,10 @@
         <v>129.1241875696293</v>
       </c>
       <c r="M13" t="n">
-        <v>136.143351245146</v>
+        <v>136.1433512451459</v>
       </c>
       <c r="N13" t="n">
-        <v>132.9061666478887</v>
+        <v>132.9061666478886</v>
       </c>
       <c r="O13" t="n">
         <v>122.7603563857525</v>
@@ -31940,19 +31940,19 @@
         <v>105.0426923949093</v>
       </c>
       <c r="Q13" t="n">
-        <v>72.72611542765412</v>
+        <v>72.72611542765409</v>
       </c>
       <c r="R13" t="n">
-        <v>39.0515000439884</v>
+        <v>39.05150004398838</v>
       </c>
       <c r="S13" t="n">
-        <v>15.13581188522559</v>
+        <v>15.13581188522558</v>
       </c>
       <c r="T13" t="n">
-        <v>3.710918928563394</v>
+        <v>3.710918928563393</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04737343313059659</v>
+        <v>0.04737343313059657</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.936200617062906</v>
+        <v>1.936200617062905</v>
       </c>
       <c r="H14" t="n">
-        <v>19.82911456949549</v>
+        <v>19.82911456949548</v>
       </c>
       <c r="I14" t="n">
-        <v>74.64537428931774</v>
+        <v>74.64537428931772</v>
       </c>
       <c r="J14" t="n">
         <v>164.3326071224429</v>
       </c>
       <c r="K14" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427157</v>
       </c>
       <c r="L14" t="n">
-        <v>305.5469788771547</v>
+        <v>305.5469788771546</v>
       </c>
       <c r="M14" t="n">
-        <v>339.9798866008472</v>
+        <v>339.9798866008471</v>
       </c>
       <c r="N14" t="n">
-        <v>345.4811166040772</v>
+        <v>345.481116604077</v>
       </c>
       <c r="O14" t="n">
-        <v>326.2280217181579</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P14" t="n">
-        <v>278.4280689844174</v>
+        <v>278.4280689844173</v>
       </c>
       <c r="Q14" t="n">
-        <v>209.087884385852</v>
+        <v>209.0878843858519</v>
       </c>
       <c r="R14" t="n">
-        <v>121.6248620115779</v>
+        <v>121.6248620115778</v>
       </c>
       <c r="S14" t="n">
-        <v>44.12117156132101</v>
+        <v>44.12117156132099</v>
       </c>
       <c r="T14" t="n">
-        <v>8.475718201192874</v>
+        <v>8.475718201192871</v>
       </c>
       <c r="U14" t="n">
         <v>0.1548960493650324</v>
@@ -32071,46 +32071,46 @@
         <v>1.035958660346441</v>
       </c>
       <c r="H15" t="n">
-        <v>10.0051796933459</v>
+        <v>10.00517969334589</v>
       </c>
       <c r="I15" t="n">
-        <v>35.66787492859459</v>
+        <v>35.66787492859457</v>
       </c>
       <c r="J15" t="n">
-        <v>97.87537501106446</v>
+        <v>97.87537501106442</v>
       </c>
       <c r="K15" t="n">
-        <v>167.284605254276</v>
+        <v>113.5466695008065</v>
       </c>
       <c r="L15" t="n">
-        <v>224.9347959668885</v>
+        <v>224.9347959668884</v>
       </c>
       <c r="M15" t="n">
-        <v>208.7503616509769</v>
+        <v>262.4882974044469</v>
       </c>
       <c r="N15" t="n">
         <v>269.4355815784369</v>
       </c>
       <c r="O15" t="n">
-        <v>246.4809186307605</v>
+        <v>246.4809186307604</v>
       </c>
       <c r="P15" t="n">
-        <v>197.8226673428218</v>
+        <v>197.8226673428217</v>
       </c>
       <c r="Q15" t="n">
-        <v>132.2392142575563</v>
+        <v>132.2392142575562</v>
       </c>
       <c r="R15" t="n">
-        <v>64.32031050817645</v>
+        <v>64.32031050817642</v>
       </c>
       <c r="S15" t="n">
-        <v>19.24247774810165</v>
+        <v>19.24247774810164</v>
       </c>
       <c r="T15" t="n">
-        <v>4.175640389729733</v>
+        <v>4.175640389729732</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06815517502279222</v>
+        <v>0.0681551750227922</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8685129407276031</v>
+        <v>0.8685129407276028</v>
       </c>
       <c r="H16" t="n">
-        <v>7.721869600287241</v>
+        <v>7.721869600287238</v>
       </c>
       <c r="I16" t="n">
-        <v>26.11855279933556</v>
+        <v>26.11855279933555</v>
       </c>
       <c r="J16" t="n">
-        <v>61.40386490944154</v>
+        <v>61.40386490944152</v>
       </c>
       <c r="K16" t="n">
         <v>100.9054125681706</v>
@@ -32165,10 +32165,10 @@
         <v>129.1241875696293</v>
       </c>
       <c r="M16" t="n">
-        <v>136.143351245146</v>
+        <v>136.1433512451459</v>
       </c>
       <c r="N16" t="n">
-        <v>132.9061666478887</v>
+        <v>132.9061666478886</v>
       </c>
       <c r="O16" t="n">
         <v>122.7603563857525</v>
@@ -32177,19 +32177,19 @@
         <v>105.0426923949093</v>
       </c>
       <c r="Q16" t="n">
-        <v>72.72611542765412</v>
+        <v>72.72611542765409</v>
       </c>
       <c r="R16" t="n">
-        <v>39.0515000439884</v>
+        <v>39.05150004398838</v>
       </c>
       <c r="S16" t="n">
-        <v>15.13581188522559</v>
+        <v>15.13581188522558</v>
       </c>
       <c r="T16" t="n">
-        <v>3.710918928563394</v>
+        <v>3.710918928563393</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04737343313059659</v>
+        <v>0.04737343313059657</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32314,13 +32314,13 @@
         <v>35.66787492859458</v>
       </c>
       <c r="J18" t="n">
-        <v>97.87537501106445</v>
+        <v>44.13743925759465</v>
       </c>
       <c r="K18" t="n">
         <v>167.284605254276</v>
       </c>
       <c r="L18" t="n">
-        <v>171.1968602134187</v>
+        <v>224.9347959668885</v>
       </c>
       <c r="M18" t="n">
         <v>262.4882974044469</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.936200617062906</v>
+        <v>1.936200617062905</v>
       </c>
       <c r="H20" t="n">
-        <v>19.82911456949549</v>
+        <v>19.82911456949548</v>
       </c>
       <c r="I20" t="n">
-        <v>74.64537428931774</v>
+        <v>74.64537428931772</v>
       </c>
       <c r="J20" t="n">
         <v>164.3326071224429</v>
       </c>
       <c r="K20" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427157</v>
       </c>
       <c r="L20" t="n">
-        <v>305.5469788771547</v>
+        <v>305.5469788771546</v>
       </c>
       <c r="M20" t="n">
-        <v>339.9798866008472</v>
+        <v>339.9798866008471</v>
       </c>
       <c r="N20" t="n">
-        <v>345.4811166040772</v>
+        <v>345.481116604077</v>
       </c>
       <c r="O20" t="n">
-        <v>326.2280217181579</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P20" t="n">
-        <v>278.4280689844174</v>
+        <v>278.4280689844173</v>
       </c>
       <c r="Q20" t="n">
-        <v>209.087884385852</v>
+        <v>209.0878843858519</v>
       </c>
       <c r="R20" t="n">
-        <v>121.6248620115779</v>
+        <v>121.6248620115778</v>
       </c>
       <c r="S20" t="n">
-        <v>44.12117156132101</v>
+        <v>44.12117156132099</v>
       </c>
       <c r="T20" t="n">
-        <v>8.475718201192874</v>
+        <v>8.475718201192871</v>
       </c>
       <c r="U20" t="n">
         <v>0.1548960493650324</v>
@@ -32545,19 +32545,19 @@
         <v>1.035958660346441</v>
       </c>
       <c r="H21" t="n">
-        <v>10.0051796933459</v>
+        <v>10.00517969334589</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>35.66787492859457</v>
       </c>
       <c r="J21" t="n">
-        <v>97.87537501106446</v>
+        <v>97.87537501106442</v>
       </c>
       <c r="K21" t="n">
         <v>167.284605254276</v>
       </c>
       <c r="L21" t="n">
-        <v>224.9347959668885</v>
+        <v>224.9347959668884</v>
       </c>
       <c r="M21" t="n">
         <v>262.4882974044469</v>
@@ -32566,25 +32566,25 @@
         <v>269.4355815784369</v>
       </c>
       <c r="O21" t="n">
-        <v>228.4108578058851</v>
+        <v>246.4809186307604</v>
       </c>
       <c r="P21" t="n">
-        <v>197.8226673428218</v>
+        <v>144.0847315893523</v>
       </c>
       <c r="Q21" t="n">
-        <v>132.2392142575563</v>
+        <v>132.2392142575562</v>
       </c>
       <c r="R21" t="n">
-        <v>64.32031050817645</v>
+        <v>64.32031050817642</v>
       </c>
       <c r="S21" t="n">
-        <v>19.24247774810165</v>
+        <v>19.24247774810164</v>
       </c>
       <c r="T21" t="n">
-        <v>4.175640389729733</v>
+        <v>4.175640389729732</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06815517502279222</v>
+        <v>0.0681551750227922</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8685129407276031</v>
+        <v>0.8685129407276028</v>
       </c>
       <c r="H22" t="n">
-        <v>7.721869600287241</v>
+        <v>7.721869600287238</v>
       </c>
       <c r="I22" t="n">
-        <v>26.11855279933556</v>
+        <v>26.11855279933555</v>
       </c>
       <c r="J22" t="n">
-        <v>61.40386490944154</v>
+        <v>61.40386490944152</v>
       </c>
       <c r="K22" t="n">
         <v>100.9054125681706</v>
@@ -32639,10 +32639,10 @@
         <v>129.1241875696293</v>
       </c>
       <c r="M22" t="n">
-        <v>136.143351245146</v>
+        <v>136.1433512451459</v>
       </c>
       <c r="N22" t="n">
-        <v>132.9061666478887</v>
+        <v>132.9061666478886</v>
       </c>
       <c r="O22" t="n">
         <v>122.7603563857525</v>
@@ -32651,19 +32651,19 @@
         <v>105.0426923949093</v>
       </c>
       <c r="Q22" t="n">
-        <v>72.72611542765412</v>
+        <v>72.72611542765409</v>
       </c>
       <c r="R22" t="n">
-        <v>39.0515000439884</v>
+        <v>39.05150004398838</v>
       </c>
       <c r="S22" t="n">
-        <v>15.13581188522559</v>
+        <v>15.13581188522558</v>
       </c>
       <c r="T22" t="n">
-        <v>3.710918928563394</v>
+        <v>3.710918928563393</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04737343313059659</v>
+        <v>0.04737343313059657</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.936200617062906</v>
+        <v>1.936200617062905</v>
       </c>
       <c r="H23" t="n">
-        <v>19.82911456949549</v>
+        <v>19.82911456949548</v>
       </c>
       <c r="I23" t="n">
-        <v>74.64537428931774</v>
+        <v>74.64537428931772</v>
       </c>
       <c r="J23" t="n">
         <v>164.3326071224429</v>
       </c>
       <c r="K23" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427157</v>
       </c>
       <c r="L23" t="n">
-        <v>305.5469788771547</v>
+        <v>305.5469788771546</v>
       </c>
       <c r="M23" t="n">
-        <v>339.9798866008472</v>
+        <v>339.9798866008471</v>
       </c>
       <c r="N23" t="n">
-        <v>345.4811166040772</v>
+        <v>345.481116604077</v>
       </c>
       <c r="O23" t="n">
-        <v>326.2280217181579</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P23" t="n">
-        <v>278.4280689844174</v>
+        <v>278.4280689844173</v>
       </c>
       <c r="Q23" t="n">
-        <v>209.087884385852</v>
+        <v>209.0878843858519</v>
       </c>
       <c r="R23" t="n">
-        <v>121.6248620115779</v>
+        <v>121.6248620115778</v>
       </c>
       <c r="S23" t="n">
-        <v>44.12117156132101</v>
+        <v>44.12117156132099</v>
       </c>
       <c r="T23" t="n">
-        <v>8.475718201192874</v>
+        <v>8.475718201192871</v>
       </c>
       <c r="U23" t="n">
         <v>0.1548960493650324</v>
@@ -32782,19 +32782,19 @@
         <v>1.035958660346441</v>
       </c>
       <c r="H24" t="n">
-        <v>10.0051796933459</v>
+        <v>10.00517969334589</v>
       </c>
       <c r="I24" t="n">
-        <v>35.66787492859459</v>
+        <v>35.66787492859457</v>
       </c>
       <c r="J24" t="n">
-        <v>97.87537501106446</v>
+        <v>97.87537501106442</v>
       </c>
       <c r="K24" t="n">
         <v>167.284605254276</v>
       </c>
       <c r="L24" t="n">
-        <v>171.1968602134186</v>
+        <v>224.9347959668884</v>
       </c>
       <c r="M24" t="n">
         <v>262.4882974044469</v>
@@ -32803,25 +32803,25 @@
         <v>269.4355815784369</v>
       </c>
       <c r="O24" t="n">
-        <v>246.4809186307605</v>
+        <v>246.4809186307604</v>
       </c>
       <c r="P24" t="n">
-        <v>197.8226673428218</v>
+        <v>144.0847315893523</v>
       </c>
       <c r="Q24" t="n">
-        <v>132.2392142575563</v>
+        <v>132.2392142575562</v>
       </c>
       <c r="R24" t="n">
-        <v>64.32031050817645</v>
+        <v>64.32031050817642</v>
       </c>
       <c r="S24" t="n">
-        <v>19.24247774810165</v>
+        <v>19.24247774810164</v>
       </c>
       <c r="T24" t="n">
-        <v>4.175640389729733</v>
+        <v>4.175640389729732</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06815517502279222</v>
+        <v>0.0681551750227922</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8685129407276031</v>
+        <v>0.8685129407276028</v>
       </c>
       <c r="H25" t="n">
-        <v>7.721869600287241</v>
+        <v>7.721869600287238</v>
       </c>
       <c r="I25" t="n">
-        <v>26.11855279933556</v>
+        <v>26.11855279933555</v>
       </c>
       <c r="J25" t="n">
-        <v>61.40386490944154</v>
+        <v>61.40386490944152</v>
       </c>
       <c r="K25" t="n">
         <v>100.9054125681706</v>
@@ -32876,10 +32876,10 @@
         <v>129.1241875696293</v>
       </c>
       <c r="M25" t="n">
-        <v>136.143351245146</v>
+        <v>136.1433512451459</v>
       </c>
       <c r="N25" t="n">
-        <v>132.9061666478887</v>
+        <v>132.9061666478886</v>
       </c>
       <c r="O25" t="n">
         <v>122.7603563857525</v>
@@ -32888,19 +32888,19 @@
         <v>105.0426923949093</v>
       </c>
       <c r="Q25" t="n">
-        <v>72.72611542765412</v>
+        <v>72.72611542765409</v>
       </c>
       <c r="R25" t="n">
-        <v>39.0515000439884</v>
+        <v>39.05150004398838</v>
       </c>
       <c r="S25" t="n">
-        <v>15.13581188522559</v>
+        <v>15.13581188522558</v>
       </c>
       <c r="T25" t="n">
-        <v>3.710918928563394</v>
+        <v>3.710918928563393</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04737343313059659</v>
+        <v>0.04737343313059657</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,46 +32937,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.936200617062906</v>
+        <v>1.936200617062905</v>
       </c>
       <c r="H26" t="n">
-        <v>19.82911456949549</v>
+        <v>19.82911456949548</v>
       </c>
       <c r="I26" t="n">
-        <v>74.64537428931776</v>
+        <v>74.64537428931772</v>
       </c>
       <c r="J26" t="n">
-        <v>164.332607122443</v>
+        <v>164.3326071224429</v>
       </c>
       <c r="K26" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427157</v>
       </c>
       <c r="L26" t="n">
-        <v>305.5469788771548</v>
+        <v>305.5469788771546</v>
       </c>
       <c r="M26" t="n">
-        <v>339.9798866008472</v>
+        <v>339.9798866008471</v>
       </c>
       <c r="N26" t="n">
-        <v>345.4811166040772</v>
+        <v>345.481116604077</v>
       </c>
       <c r="O26" t="n">
-        <v>326.2280217181579</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P26" t="n">
-        <v>278.4280689844174</v>
+        <v>278.4280689844173</v>
       </c>
       <c r="Q26" t="n">
-        <v>209.087884385852</v>
+        <v>209.0878843858519</v>
       </c>
       <c r="R26" t="n">
-        <v>121.6248620115779</v>
+        <v>121.6248620115778</v>
       </c>
       <c r="S26" t="n">
-        <v>44.12117156132101</v>
+        <v>44.12117156132099</v>
       </c>
       <c r="T26" t="n">
-        <v>8.475718201192874</v>
+        <v>8.475718201192871</v>
       </c>
       <c r="U26" t="n">
         <v>0.1548960493650324</v>
@@ -33019,46 +33019,46 @@
         <v>1.035958660346441</v>
       </c>
       <c r="H27" t="n">
-        <v>10.0051796933459</v>
+        <v>10.00517969334589</v>
       </c>
       <c r="I27" t="n">
-        <v>35.66787492859459</v>
+        <v>35.66787492859457</v>
       </c>
       <c r="J27" t="n">
-        <v>97.87537501106446</v>
+        <v>97.87537501106442</v>
       </c>
       <c r="K27" t="n">
         <v>167.284605254276</v>
       </c>
       <c r="L27" t="n">
-        <v>224.9347959668885</v>
+        <v>224.9347959668884</v>
       </c>
       <c r="M27" t="n">
-        <v>262.488297404447</v>
+        <v>262.4882974044469</v>
       </c>
       <c r="N27" t="n">
-        <v>215.6976458249669</v>
+        <v>215.6976458249674</v>
       </c>
       <c r="O27" t="n">
-        <v>246.4809186307606</v>
+        <v>246.4809186307604</v>
       </c>
       <c r="P27" t="n">
-        <v>197.8226673428218</v>
+        <v>197.8226673428217</v>
       </c>
       <c r="Q27" t="n">
-        <v>132.2392142575563</v>
+        <v>132.2392142575562</v>
       </c>
       <c r="R27" t="n">
-        <v>64.32031050817645</v>
+        <v>64.32031050817642</v>
       </c>
       <c r="S27" t="n">
-        <v>19.24247774810165</v>
+        <v>19.24247774810164</v>
       </c>
       <c r="T27" t="n">
-        <v>4.175640389729734</v>
+        <v>4.175640389729732</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06815517502279222</v>
+        <v>0.0681551750227922</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8685129407276032</v>
+        <v>0.8685129407276028</v>
       </c>
       <c r="H28" t="n">
-        <v>7.721869600287242</v>
+        <v>7.721869600287238</v>
       </c>
       <c r="I28" t="n">
-        <v>26.11855279933557</v>
+        <v>26.11855279933555</v>
       </c>
       <c r="J28" t="n">
-        <v>61.40386490944154</v>
+        <v>61.40386490944152</v>
       </c>
       <c r="K28" t="n">
         <v>100.9054125681706</v>
@@ -33113,31 +33113,31 @@
         <v>129.1241875696293</v>
       </c>
       <c r="M28" t="n">
-        <v>136.143351245146</v>
+        <v>136.1433512451459</v>
       </c>
       <c r="N28" t="n">
-        <v>132.9061666478887</v>
+        <v>132.9061666478886</v>
       </c>
       <c r="O28" t="n">
         <v>122.7603563857525</v>
       </c>
       <c r="P28" t="n">
-        <v>105.0426923949094</v>
+        <v>105.0426923949093</v>
       </c>
       <c r="Q28" t="n">
-        <v>72.72611542765412</v>
+        <v>72.72611542765409</v>
       </c>
       <c r="R28" t="n">
-        <v>39.0515000439884</v>
+        <v>39.05150004398838</v>
       </c>
       <c r="S28" t="n">
-        <v>15.13581188522559</v>
+        <v>15.13581188522558</v>
       </c>
       <c r="T28" t="n">
-        <v>3.710918928563395</v>
+        <v>3.710918928563393</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0473734331305966</v>
+        <v>0.04737343313059657</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,46 +33174,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.936200617062906</v>
+        <v>1.936200617062905</v>
       </c>
       <c r="H29" t="n">
-        <v>19.82911456949549</v>
+        <v>19.82911456949548</v>
       </c>
       <c r="I29" t="n">
-        <v>74.64537428931774</v>
+        <v>74.64537428931772</v>
       </c>
       <c r="J29" t="n">
         <v>164.3326071224429</v>
       </c>
       <c r="K29" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427157</v>
       </c>
       <c r="L29" t="n">
-        <v>305.5469788771547</v>
+        <v>305.5469788771546</v>
       </c>
       <c r="M29" t="n">
-        <v>339.9798866008472</v>
+        <v>339.9798866008471</v>
       </c>
       <c r="N29" t="n">
-        <v>345.4811166040772</v>
+        <v>345.481116604077</v>
       </c>
       <c r="O29" t="n">
-        <v>326.2280217181579</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P29" t="n">
-        <v>278.4280689844174</v>
+        <v>278.4280689844173</v>
       </c>
       <c r="Q29" t="n">
-        <v>209.087884385852</v>
+        <v>209.0878843858519</v>
       </c>
       <c r="R29" t="n">
-        <v>121.6248620115779</v>
+        <v>121.6248620115778</v>
       </c>
       <c r="S29" t="n">
-        <v>44.12117156132101</v>
+        <v>44.12117156132099</v>
       </c>
       <c r="T29" t="n">
-        <v>8.475718201192874</v>
+        <v>8.475718201192871</v>
       </c>
       <c r="U29" t="n">
         <v>0.1548960493650324</v>
@@ -33256,19 +33256,19 @@
         <v>1.035958660346441</v>
       </c>
       <c r="H30" t="n">
-        <v>10.0051796933459</v>
+        <v>10.00517969334589</v>
       </c>
       <c r="I30" t="n">
-        <v>35.66787492859459</v>
+        <v>35.66787492859457</v>
       </c>
       <c r="J30" t="n">
-        <v>97.87537501106446</v>
+        <v>97.87537501106442</v>
       </c>
       <c r="K30" t="n">
         <v>167.284605254276</v>
       </c>
       <c r="L30" t="n">
-        <v>224.9347959668885</v>
+        <v>224.9347959668884</v>
       </c>
       <c r="M30" t="n">
         <v>262.4882974044469</v>
@@ -33277,25 +33277,25 @@
         <v>269.4355815784369</v>
       </c>
       <c r="O30" t="n">
-        <v>246.4809186307605</v>
+        <v>246.4809186307604</v>
       </c>
       <c r="P30" t="n">
-        <v>197.8226673428218</v>
+        <v>144.0847315893523</v>
       </c>
       <c r="Q30" t="n">
-        <v>132.2392142575563</v>
+        <v>132.2392142575562</v>
       </c>
       <c r="R30" t="n">
-        <v>10.58237475470628</v>
+        <v>64.32031050817642</v>
       </c>
       <c r="S30" t="n">
-        <v>19.24247774810165</v>
+        <v>19.24247774810164</v>
       </c>
       <c r="T30" t="n">
-        <v>4.175640389729733</v>
+        <v>4.175640389729732</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06815517502279222</v>
+        <v>0.0681551750227922</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8685129407276031</v>
+        <v>0.8685129407276028</v>
       </c>
       <c r="H31" t="n">
-        <v>7.721869600287241</v>
+        <v>7.721869600287238</v>
       </c>
       <c r="I31" t="n">
-        <v>26.11855279933556</v>
+        <v>26.11855279933555</v>
       </c>
       <c r="J31" t="n">
-        <v>61.40386490944154</v>
+        <v>61.40386490944152</v>
       </c>
       <c r="K31" t="n">
         <v>100.9054125681706</v>
@@ -33350,10 +33350,10 @@
         <v>129.1241875696293</v>
       </c>
       <c r="M31" t="n">
-        <v>136.143351245146</v>
+        <v>136.1433512451459</v>
       </c>
       <c r="N31" t="n">
-        <v>132.9061666478887</v>
+        <v>132.9061666478886</v>
       </c>
       <c r="O31" t="n">
         <v>122.7603563857525</v>
@@ -33362,19 +33362,19 @@
         <v>105.0426923949093</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.72611542765412</v>
+        <v>72.72611542765409</v>
       </c>
       <c r="R31" t="n">
-        <v>39.0515000439884</v>
+        <v>39.05150004398838</v>
       </c>
       <c r="S31" t="n">
-        <v>15.13581188522559</v>
+        <v>15.13581188522558</v>
       </c>
       <c r="T31" t="n">
-        <v>3.710918928563394</v>
+        <v>3.710918928563393</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04737343313059659</v>
+        <v>0.04737343313059657</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,46 +33411,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.936200617062906</v>
+        <v>1.936200617062905</v>
       </c>
       <c r="H32" t="n">
-        <v>19.82911456949549</v>
+        <v>19.82911456949548</v>
       </c>
       <c r="I32" t="n">
-        <v>74.64537428931774</v>
+        <v>74.64537428931772</v>
       </c>
       <c r="J32" t="n">
         <v>164.3326071224429</v>
       </c>
       <c r="K32" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427157</v>
       </c>
       <c r="L32" t="n">
-        <v>305.5469788771547</v>
+        <v>305.5469788771546</v>
       </c>
       <c r="M32" t="n">
-        <v>339.9798866008472</v>
+        <v>339.9798866008471</v>
       </c>
       <c r="N32" t="n">
-        <v>345.4811166040772</v>
+        <v>345.481116604077</v>
       </c>
       <c r="O32" t="n">
-        <v>326.2280217181579</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P32" t="n">
-        <v>278.4280689844174</v>
+        <v>278.4280689844173</v>
       </c>
       <c r="Q32" t="n">
-        <v>209.087884385852</v>
+        <v>209.0878843858519</v>
       </c>
       <c r="R32" t="n">
-        <v>121.6248620115779</v>
+        <v>121.6248620115778</v>
       </c>
       <c r="S32" t="n">
-        <v>44.12117156132101</v>
+        <v>44.12117156132099</v>
       </c>
       <c r="T32" t="n">
-        <v>8.475718201192874</v>
+        <v>8.475718201192871</v>
       </c>
       <c r="U32" t="n">
         <v>0.1548960493650324</v>
@@ -33493,19 +33493,19 @@
         <v>1.035958660346441</v>
       </c>
       <c r="H33" t="n">
-        <v>10.0051796933459</v>
+        <v>10.00517969334589</v>
       </c>
       <c r="I33" t="n">
-        <v>35.66787492859459</v>
+        <v>35.66787492859457</v>
       </c>
       <c r="J33" t="n">
-        <v>44.13743925759461</v>
+        <v>44.13743925759498</v>
       </c>
       <c r="K33" t="n">
         <v>167.284605254276</v>
       </c>
       <c r="L33" t="n">
-        <v>224.9347959668885</v>
+        <v>224.9347959668884</v>
       </c>
       <c r="M33" t="n">
         <v>262.4882974044469</v>
@@ -33514,25 +33514,25 @@
         <v>269.4355815784369</v>
       </c>
       <c r="O33" t="n">
-        <v>246.4809186307605</v>
+        <v>246.4809186307604</v>
       </c>
       <c r="P33" t="n">
-        <v>197.8226673428218</v>
+        <v>197.8226673428217</v>
       </c>
       <c r="Q33" t="n">
-        <v>132.2392142575563</v>
+        <v>132.2392142575562</v>
       </c>
       <c r="R33" t="n">
-        <v>64.32031050817645</v>
+        <v>64.32031050817642</v>
       </c>
       <c r="S33" t="n">
-        <v>19.24247774810165</v>
+        <v>19.24247774810164</v>
       </c>
       <c r="T33" t="n">
-        <v>4.175640389729733</v>
+        <v>4.175640389729732</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06815517502279222</v>
+        <v>0.0681551750227922</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8685129407276031</v>
+        <v>0.8685129407276028</v>
       </c>
       <c r="H34" t="n">
-        <v>7.721869600287241</v>
+        <v>7.721869600287238</v>
       </c>
       <c r="I34" t="n">
-        <v>26.11855279933556</v>
+        <v>26.11855279933555</v>
       </c>
       <c r="J34" t="n">
-        <v>61.40386490944154</v>
+        <v>61.40386490944152</v>
       </c>
       <c r="K34" t="n">
         <v>100.9054125681706</v>
@@ -33587,10 +33587,10 @@
         <v>129.1241875696293</v>
       </c>
       <c r="M34" t="n">
-        <v>136.143351245146</v>
+        <v>136.1433512451459</v>
       </c>
       <c r="N34" t="n">
-        <v>132.9061666478887</v>
+        <v>132.9061666478886</v>
       </c>
       <c r="O34" t="n">
         <v>122.7603563857525</v>
@@ -33599,19 +33599,19 @@
         <v>105.0426923949093</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.72611542765412</v>
+        <v>72.72611542765409</v>
       </c>
       <c r="R34" t="n">
-        <v>39.0515000439884</v>
+        <v>39.05150004398838</v>
       </c>
       <c r="S34" t="n">
-        <v>15.13581188522559</v>
+        <v>15.13581188522558</v>
       </c>
       <c r="T34" t="n">
-        <v>3.710918928563394</v>
+        <v>3.710918928563393</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04737343313059659</v>
+        <v>0.04737343313059657</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,46 +33648,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.936200617062906</v>
+        <v>1.936200617062905</v>
       </c>
       <c r="H35" t="n">
-        <v>19.82911456949549</v>
+        <v>19.82911456949548</v>
       </c>
       <c r="I35" t="n">
-        <v>74.64537428931774</v>
+        <v>74.64537428931772</v>
       </c>
       <c r="J35" t="n">
         <v>164.3326071224429</v>
       </c>
       <c r="K35" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427157</v>
       </c>
       <c r="L35" t="n">
-        <v>305.5469788771547</v>
+        <v>305.5469788771546</v>
       </c>
       <c r="M35" t="n">
-        <v>339.9798866008472</v>
+        <v>339.9798866008471</v>
       </c>
       <c r="N35" t="n">
-        <v>345.4811166040772</v>
+        <v>345.481116604077</v>
       </c>
       <c r="O35" t="n">
-        <v>326.2280217181579</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P35" t="n">
-        <v>278.4280689844174</v>
+        <v>278.4280689844173</v>
       </c>
       <c r="Q35" t="n">
-        <v>209.087884385852</v>
+        <v>209.0878843858519</v>
       </c>
       <c r="R35" t="n">
-        <v>121.6248620115779</v>
+        <v>121.6248620115778</v>
       </c>
       <c r="S35" t="n">
-        <v>44.12117156132101</v>
+        <v>44.12117156132099</v>
       </c>
       <c r="T35" t="n">
-        <v>8.475718201192874</v>
+        <v>8.475718201192871</v>
       </c>
       <c r="U35" t="n">
         <v>0.1548960493650324</v>
@@ -33730,19 +33730,19 @@
         <v>1.035958660346441</v>
       </c>
       <c r="H36" t="n">
-        <v>10.0051796933459</v>
+        <v>10.00517969334589</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>35.66787492859457</v>
       </c>
       <c r="J36" t="n">
-        <v>97.87537501106446</v>
+        <v>97.87537501106442</v>
       </c>
       <c r="K36" t="n">
-        <v>149.2145444294007</v>
+        <v>167.284605254276</v>
       </c>
       <c r="L36" t="n">
-        <v>224.9347959668885</v>
+        <v>224.9347959668884</v>
       </c>
       <c r="M36" t="n">
         <v>262.4882974044469</v>
@@ -33751,25 +33751,25 @@
         <v>269.4355815784369</v>
       </c>
       <c r="O36" t="n">
-        <v>246.4809186307605</v>
+        <v>246.4809186307604</v>
       </c>
       <c r="P36" t="n">
-        <v>197.8226673428218</v>
+        <v>197.8226673428217</v>
       </c>
       <c r="Q36" t="n">
-        <v>132.2392142575563</v>
+        <v>132.2392142575562</v>
       </c>
       <c r="R36" t="n">
-        <v>64.32031050817645</v>
+        <v>10.58237475470719</v>
       </c>
       <c r="S36" t="n">
-        <v>19.24247774810165</v>
+        <v>19.24247774810164</v>
       </c>
       <c r="T36" t="n">
-        <v>4.175640389729733</v>
+        <v>4.175640389729732</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06815517502279222</v>
+        <v>0.0681551750227922</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8685129407276031</v>
+        <v>0.8685129407276028</v>
       </c>
       <c r="H37" t="n">
-        <v>7.721869600287241</v>
+        <v>7.721869600287238</v>
       </c>
       <c r="I37" t="n">
-        <v>26.11855279933556</v>
+        <v>26.11855279933555</v>
       </c>
       <c r="J37" t="n">
-        <v>61.40386490944154</v>
+        <v>61.40386490944152</v>
       </c>
       <c r="K37" t="n">
         <v>100.9054125681706</v>
@@ -33824,10 +33824,10 @@
         <v>129.1241875696293</v>
       </c>
       <c r="M37" t="n">
-        <v>136.143351245146</v>
+        <v>136.1433512451459</v>
       </c>
       <c r="N37" t="n">
-        <v>132.9061666478887</v>
+        <v>132.9061666478886</v>
       </c>
       <c r="O37" t="n">
         <v>122.7603563857525</v>
@@ -33836,19 +33836,19 @@
         <v>105.0426923949093</v>
       </c>
       <c r="Q37" t="n">
-        <v>72.72611542765412</v>
+        <v>72.72611542765409</v>
       </c>
       <c r="R37" t="n">
-        <v>39.0515000439884</v>
+        <v>39.05150004398838</v>
       </c>
       <c r="S37" t="n">
-        <v>15.13581188522559</v>
+        <v>15.13581188522558</v>
       </c>
       <c r="T37" t="n">
-        <v>3.710918928563394</v>
+        <v>3.710918928563393</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04737343313059659</v>
+        <v>0.04737343313059657</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,46 +33885,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.936200617062906</v>
+        <v>1.936200617062905</v>
       </c>
       <c r="H38" t="n">
-        <v>19.82911456949549</v>
+        <v>19.82911456949548</v>
       </c>
       <c r="I38" t="n">
-        <v>74.64537428931774</v>
+        <v>74.64537428931772</v>
       </c>
       <c r="J38" t="n">
         <v>164.3326071224429</v>
       </c>
       <c r="K38" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427157</v>
       </c>
       <c r="L38" t="n">
-        <v>305.5469788771547</v>
+        <v>305.5469788771546</v>
       </c>
       <c r="M38" t="n">
-        <v>339.9798866008472</v>
+        <v>339.9798866008471</v>
       </c>
       <c r="N38" t="n">
-        <v>345.4811166040772</v>
+        <v>345.481116604077</v>
       </c>
       <c r="O38" t="n">
-        <v>326.2280217181579</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P38" t="n">
-        <v>278.4280689844174</v>
+        <v>278.4280689844173</v>
       </c>
       <c r="Q38" t="n">
-        <v>209.087884385852</v>
+        <v>209.0878843858519</v>
       </c>
       <c r="R38" t="n">
-        <v>121.6248620115779</v>
+        <v>121.6248620115778</v>
       </c>
       <c r="S38" t="n">
-        <v>44.12117156132101</v>
+        <v>44.12117156132099</v>
       </c>
       <c r="T38" t="n">
-        <v>8.475718201192874</v>
+        <v>8.475718201192871</v>
       </c>
       <c r="U38" t="n">
         <v>0.1548960493650324</v>
@@ -33967,19 +33967,19 @@
         <v>1.035958660346441</v>
       </c>
       <c r="H39" t="n">
-        <v>10.0051796933459</v>
+        <v>10.00517969334589</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>35.66787492859457</v>
       </c>
       <c r="J39" t="n">
-        <v>97.87537501106446</v>
+        <v>97.87537501106442</v>
       </c>
       <c r="K39" t="n">
         <v>167.284605254276</v>
       </c>
       <c r="L39" t="n">
-        <v>224.9347959668885</v>
+        <v>224.9347959668884</v>
       </c>
       <c r="M39" t="n">
         <v>262.4882974044469</v>
@@ -33988,25 +33988,25 @@
         <v>269.4355815784369</v>
       </c>
       <c r="O39" t="n">
-        <v>228.4108578058851</v>
+        <v>246.4809186307604</v>
       </c>
       <c r="P39" t="n">
-        <v>197.8226673428218</v>
+        <v>197.8226673428217</v>
       </c>
       <c r="Q39" t="n">
-        <v>132.2392142575563</v>
+        <v>132.2392142575562</v>
       </c>
       <c r="R39" t="n">
-        <v>64.32031050817645</v>
+        <v>10.58237475470719</v>
       </c>
       <c r="S39" t="n">
-        <v>19.24247774810165</v>
+        <v>19.24247774810164</v>
       </c>
       <c r="T39" t="n">
-        <v>4.175640389729733</v>
+        <v>4.175640389729732</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06815517502279222</v>
+        <v>0.0681551750227922</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8685129407276031</v>
+        <v>0.8685129407276028</v>
       </c>
       <c r="H40" t="n">
-        <v>7.721869600287241</v>
+        <v>7.721869600287238</v>
       </c>
       <c r="I40" t="n">
-        <v>26.11855279933556</v>
+        <v>26.11855279933555</v>
       </c>
       <c r="J40" t="n">
-        <v>61.40386490944154</v>
+        <v>61.40386490944152</v>
       </c>
       <c r="K40" t="n">
         <v>100.9054125681706</v>
@@ -34061,10 +34061,10 @@
         <v>129.1241875696293</v>
       </c>
       <c r="M40" t="n">
-        <v>136.143351245146</v>
+        <v>136.1433512451459</v>
       </c>
       <c r="N40" t="n">
-        <v>132.9061666478887</v>
+        <v>132.9061666478886</v>
       </c>
       <c r="O40" t="n">
         <v>122.7603563857525</v>
@@ -34073,19 +34073,19 @@
         <v>105.0426923949093</v>
       </c>
       <c r="Q40" t="n">
-        <v>72.72611542765412</v>
+        <v>72.72611542765409</v>
       </c>
       <c r="R40" t="n">
-        <v>39.0515000439884</v>
+        <v>39.05150004398838</v>
       </c>
       <c r="S40" t="n">
-        <v>15.13581188522559</v>
+        <v>15.13581188522558</v>
       </c>
       <c r="T40" t="n">
-        <v>3.710918928563394</v>
+        <v>3.710918928563393</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04737343313059659</v>
+        <v>0.04737343313059657</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.936200617062906</v>
+        <v>1.936200617062905</v>
       </c>
       <c r="H41" t="n">
-        <v>19.82911456949549</v>
+        <v>19.82911456949548</v>
       </c>
       <c r="I41" t="n">
-        <v>74.64537428931774</v>
+        <v>74.64537428931772</v>
       </c>
       <c r="J41" t="n">
         <v>164.3326071224429</v>
       </c>
       <c r="K41" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427157</v>
       </c>
       <c r="L41" t="n">
-        <v>305.5469788771547</v>
+        <v>305.5469788771546</v>
       </c>
       <c r="M41" t="n">
-        <v>339.9798866008472</v>
+        <v>339.9798866008471</v>
       </c>
       <c r="N41" t="n">
-        <v>345.4811166040772</v>
+        <v>345.481116604077</v>
       </c>
       <c r="O41" t="n">
-        <v>326.2280217181579</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P41" t="n">
-        <v>278.4280689844174</v>
+        <v>278.4280689844173</v>
       </c>
       <c r="Q41" t="n">
-        <v>209.087884385852</v>
+        <v>209.0878843858519</v>
       </c>
       <c r="R41" t="n">
-        <v>121.6248620115779</v>
+        <v>121.6248620115778</v>
       </c>
       <c r="S41" t="n">
-        <v>44.12117156132101</v>
+        <v>44.12117156132099</v>
       </c>
       <c r="T41" t="n">
-        <v>8.475718201192874</v>
+        <v>8.475718201192871</v>
       </c>
       <c r="U41" t="n">
         <v>0.1548960493650324</v>
@@ -34204,46 +34204,46 @@
         <v>1.035958660346441</v>
       </c>
       <c r="H42" t="n">
-        <v>10.0051796933459</v>
+        <v>10.00517969334589</v>
       </c>
       <c r="I42" t="n">
-        <v>35.66787492859459</v>
+        <v>35.66787492859457</v>
       </c>
       <c r="J42" t="n">
-        <v>97.87537501106446</v>
+        <v>44.13743925759498</v>
       </c>
       <c r="K42" t="n">
         <v>167.284605254276</v>
       </c>
       <c r="L42" t="n">
-        <v>224.9347959668885</v>
+        <v>224.9347959668884</v>
       </c>
       <c r="M42" t="n">
-        <v>208.7503616509769</v>
+        <v>262.4882974044469</v>
       </c>
       <c r="N42" t="n">
         <v>269.4355815784369</v>
       </c>
       <c r="O42" t="n">
-        <v>246.4809186307605</v>
+        <v>246.4809186307604</v>
       </c>
       <c r="P42" t="n">
-        <v>197.8226673428218</v>
+        <v>197.8226673428217</v>
       </c>
       <c r="Q42" t="n">
-        <v>132.2392142575563</v>
+        <v>132.2392142575562</v>
       </c>
       <c r="R42" t="n">
-        <v>64.32031050817645</v>
+        <v>64.32031050817642</v>
       </c>
       <c r="S42" t="n">
-        <v>19.24247774810165</v>
+        <v>19.24247774810164</v>
       </c>
       <c r="T42" t="n">
-        <v>4.175640389729733</v>
+        <v>4.175640389729732</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06815517502279222</v>
+        <v>0.0681551750227922</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8685129407276031</v>
+        <v>0.8685129407276028</v>
       </c>
       <c r="H43" t="n">
-        <v>7.721869600287241</v>
+        <v>7.721869600287238</v>
       </c>
       <c r="I43" t="n">
-        <v>26.11855279933556</v>
+        <v>26.11855279933555</v>
       </c>
       <c r="J43" t="n">
-        <v>61.40386490944154</v>
+        <v>61.40386490944152</v>
       </c>
       <c r="K43" t="n">
         <v>100.9054125681706</v>
@@ -34298,10 +34298,10 @@
         <v>129.1241875696293</v>
       </c>
       <c r="M43" t="n">
-        <v>136.143351245146</v>
+        <v>136.1433512451459</v>
       </c>
       <c r="N43" t="n">
-        <v>132.9061666478887</v>
+        <v>132.9061666478886</v>
       </c>
       <c r="O43" t="n">
         <v>122.7603563857525</v>
@@ -34310,19 +34310,19 @@
         <v>105.0426923949093</v>
       </c>
       <c r="Q43" t="n">
-        <v>72.72611542765412</v>
+        <v>72.72611542765409</v>
       </c>
       <c r="R43" t="n">
-        <v>39.0515000439884</v>
+        <v>39.05150004398838</v>
       </c>
       <c r="S43" t="n">
-        <v>15.13581188522559</v>
+        <v>15.13581188522558</v>
       </c>
       <c r="T43" t="n">
-        <v>3.710918928563394</v>
+        <v>3.710918928563393</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04737343313059659</v>
+        <v>0.04737343313059657</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.936200617062906</v>
+        <v>1.936200617062905</v>
       </c>
       <c r="H44" t="n">
-        <v>19.82911456949549</v>
+        <v>19.82911456949548</v>
       </c>
       <c r="I44" t="n">
-        <v>74.64537428931776</v>
+        <v>74.64537428931772</v>
       </c>
       <c r="J44" t="n">
-        <v>164.332607122443</v>
+        <v>164.3326071224429</v>
       </c>
       <c r="K44" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427157</v>
       </c>
       <c r="L44" t="n">
-        <v>305.5469788771548</v>
+        <v>305.5469788771546</v>
       </c>
       <c r="M44" t="n">
-        <v>339.9798866008472</v>
+        <v>339.9798866008471</v>
       </c>
       <c r="N44" t="n">
-        <v>345.4811166040772</v>
+        <v>345.481116604077</v>
       </c>
       <c r="O44" t="n">
-        <v>326.2280217181579</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P44" t="n">
-        <v>278.4280689844174</v>
+        <v>278.4280689844173</v>
       </c>
       <c r="Q44" t="n">
-        <v>209.087884385852</v>
+        <v>209.0878843858519</v>
       </c>
       <c r="R44" t="n">
-        <v>121.6248620115779</v>
+        <v>121.6248620115778</v>
       </c>
       <c r="S44" t="n">
-        <v>44.12117156132101</v>
+        <v>44.12117156132099</v>
       </c>
       <c r="T44" t="n">
-        <v>8.475718201192874</v>
+        <v>8.475718201192871</v>
       </c>
       <c r="U44" t="n">
         <v>0.1548960493650324</v>
@@ -34441,46 +34441,46 @@
         <v>1.035958660346441</v>
       </c>
       <c r="H45" t="n">
-        <v>10.0051796933459</v>
+        <v>10.00517969334589</v>
       </c>
       <c r="I45" t="n">
-        <v>35.66787492859459</v>
+        <v>35.66787492859457</v>
       </c>
       <c r="J45" t="n">
-        <v>44.13743925759428</v>
+        <v>97.87537501106442</v>
       </c>
       <c r="K45" t="n">
         <v>167.284605254276</v>
       </c>
       <c r="L45" t="n">
-        <v>224.9347959668885</v>
+        <v>224.9347959668884</v>
       </c>
       <c r="M45" t="n">
-        <v>262.488297404447</v>
+        <v>262.4882974044469</v>
       </c>
       <c r="N45" t="n">
-        <v>269.435581578437</v>
+        <v>269.4355815784369</v>
       </c>
       <c r="O45" t="n">
-        <v>246.4809186307606</v>
+        <v>246.4809186307604</v>
       </c>
       <c r="P45" t="n">
-        <v>197.8226673428218</v>
+        <v>197.8226673428217</v>
       </c>
       <c r="Q45" t="n">
-        <v>132.2392142575563</v>
+        <v>132.2392142575562</v>
       </c>
       <c r="R45" t="n">
-        <v>64.32031050817645</v>
+        <v>10.58237475470719</v>
       </c>
       <c r="S45" t="n">
-        <v>19.24247774810165</v>
+        <v>19.24247774810164</v>
       </c>
       <c r="T45" t="n">
-        <v>4.175640389729734</v>
+        <v>4.175640389729732</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06815517502279222</v>
+        <v>0.0681551750227922</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8685129407276032</v>
+        <v>0.8685129407276028</v>
       </c>
       <c r="H46" t="n">
-        <v>7.721869600287242</v>
+        <v>7.721869600287238</v>
       </c>
       <c r="I46" t="n">
-        <v>26.11855279933557</v>
+        <v>26.11855279933555</v>
       </c>
       <c r="J46" t="n">
-        <v>61.40386490944154</v>
+        <v>61.40386490944152</v>
       </c>
       <c r="K46" t="n">
         <v>100.9054125681706</v>
@@ -34535,31 +34535,31 @@
         <v>129.1241875696293</v>
       </c>
       <c r="M46" t="n">
-        <v>136.143351245146</v>
+        <v>136.1433512451459</v>
       </c>
       <c r="N46" t="n">
-        <v>132.9061666478887</v>
+        <v>132.9061666478886</v>
       </c>
       <c r="O46" t="n">
         <v>122.7603563857525</v>
       </c>
       <c r="P46" t="n">
-        <v>105.0426923949094</v>
+        <v>105.0426923949093</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.72611542765412</v>
+        <v>72.72611542765409</v>
       </c>
       <c r="R46" t="n">
-        <v>39.0515000439884</v>
+        <v>39.05150004398838</v>
       </c>
       <c r="S46" t="n">
-        <v>15.13581188522559</v>
+        <v>15.13581188522558</v>
       </c>
       <c r="T46" t="n">
-        <v>3.710918928563395</v>
+        <v>3.710918928563393</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0473734331305966</v>
+        <v>0.04737343313059657</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,28 +35406,28 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>74.23275281018634</v>
+        <v>74.23275281018631</v>
       </c>
       <c r="J11" t="n">
         <v>164.3326071224429</v>
       </c>
       <c r="K11" t="n">
-        <v>246.2919792427158</v>
+        <v>246.291979242716</v>
       </c>
       <c r="L11" t="n">
-        <v>305.5469788771547</v>
+        <v>305.5469788771546</v>
       </c>
       <c r="M11" t="n">
-        <v>339.9798866008472</v>
+        <v>339.979886600847</v>
       </c>
       <c r="N11" t="n">
-        <v>345.4811166040772</v>
+        <v>345.481116604077</v>
       </c>
       <c r="O11" t="n">
-        <v>326.2280217181578</v>
+        <v>326.2280217181581</v>
       </c>
       <c r="P11" t="n">
-        <v>278.4280689844175</v>
+        <v>278.4280689844172</v>
       </c>
       <c r="Q11" t="n">
         <v>209.0878843858518</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>35.66787492859459</v>
+        <v>35.66787492859457</v>
       </c>
       <c r="J12" t="n">
-        <v>97.87537501106446</v>
+        <v>97.87537501106443</v>
       </c>
       <c r="K12" t="n">
         <v>167.284605254276</v>
       </c>
       <c r="L12" t="n">
-        <v>224.9347959668885</v>
+        <v>224.9347959668884</v>
       </c>
       <c r="M12" t="n">
-        <v>208.7503616509771</v>
+        <v>262.4882974044469</v>
       </c>
       <c r="N12" t="n">
-        <v>269.435581578437</v>
+        <v>215.6976458249674</v>
       </c>
       <c r="O12" t="n">
         <v>246.4809186307605</v>
@@ -35570,28 +35570,28 @@
         <v>148.8580923485222</v>
       </c>
       <c r="K13" t="n">
-        <v>378.4392050642671</v>
+        <v>211.0658246641665</v>
       </c>
       <c r="L13" t="n">
         <v>129.1241875696293</v>
       </c>
       <c r="M13" t="n">
-        <v>600.2684696097048</v>
+        <v>600.2684696097047</v>
       </c>
       <c r="N13" t="n">
-        <v>579.6322304434893</v>
+        <v>579.6322304434891</v>
       </c>
       <c r="O13" t="n">
-        <v>209.4036167547929</v>
+        <v>546.6686889370469</v>
       </c>
       <c r="P13" t="n">
         <v>105.0426923949094</v>
       </c>
       <c r="Q13" t="n">
-        <v>242.6178072098078</v>
+        <v>72.72611542765389</v>
       </c>
       <c r="R13" t="n">
-        <v>17.84785696230656</v>
+        <v>17.84785696230655</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,28 +35643,28 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>74.23275281018634</v>
+        <v>74.23275281018631</v>
       </c>
       <c r="J14" t="n">
-        <v>164.3326071224431</v>
+        <v>164.3326071224433</v>
       </c>
       <c r="K14" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427157</v>
       </c>
       <c r="L14" t="n">
-        <v>305.5469788771547</v>
+        <v>305.5469788771546</v>
       </c>
       <c r="M14" t="n">
-        <v>339.9798866008471</v>
+        <v>339.9798866008468</v>
       </c>
       <c r="N14" t="n">
-        <v>345.4811166040772</v>
+        <v>345.481116604077</v>
       </c>
       <c r="O14" t="n">
         <v>326.2280217181581</v>
       </c>
       <c r="P14" t="n">
-        <v>278.4280689844175</v>
+        <v>278.4280689844172</v>
       </c>
       <c r="Q14" t="n">
         <v>209.0878843858518</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>35.66787492859464</v>
+        <v>35.66787492859457</v>
       </c>
       <c r="J15" t="n">
-        <v>97.87537501106442</v>
+        <v>97.87537501106443</v>
       </c>
       <c r="K15" t="n">
-        <v>167.284605254276</v>
+        <v>113.5466695008065</v>
       </c>
       <c r="L15" t="n">
-        <v>224.9347959668885</v>
+        <v>224.9347959668884</v>
       </c>
       <c r="M15" t="n">
-        <v>208.7503616509769</v>
+        <v>262.4882974044468</v>
       </c>
       <c r="N15" t="n">
-        <v>269.435581578437</v>
+        <v>269.4355815784369</v>
       </c>
       <c r="O15" t="n">
         <v>246.4809186307605</v>
@@ -35749,7 +35749,7 @@
         <v>132.2392142575563</v>
       </c>
       <c r="R15" t="n">
-        <v>64.32031050817659</v>
+        <v>64.32031050817636</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>148.8580923485222</v>
+        <v>61.40386490944152</v>
       </c>
       <c r="K16" t="n">
-        <v>378.4392050642671</v>
+        <v>100.9054125681706</v>
       </c>
       <c r="L16" t="n">
-        <v>129.1241875696293</v>
+        <v>439.8468808527576</v>
       </c>
       <c r="M16" t="n">
-        <v>358.7123966065441</v>
+        <v>136.1433512451459</v>
       </c>
       <c r="N16" t="n">
-        <v>132.9061666478888</v>
+        <v>579.6322304434892</v>
       </c>
       <c r="O16" t="n">
         <v>546.6686889370469</v>
@@ -35825,10 +35825,10 @@
         <v>456.0597570114162</v>
       </c>
       <c r="Q16" t="n">
-        <v>242.6178072098078</v>
+        <v>72.72611542765389</v>
       </c>
       <c r="R16" t="n">
-        <v>17.84785696230656</v>
+        <v>17.84785696230655</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>305.5469788771547</v>
       </c>
       <c r="M17" t="n">
-        <v>339.9798866008471</v>
+        <v>339.979886600847</v>
       </c>
       <c r="N17" t="n">
         <v>345.4811166040772</v>
@@ -35901,13 +35901,13 @@
         <v>326.2280217181578</v>
       </c>
       <c r="P17" t="n">
-        <v>278.4280689844175</v>
+        <v>278.4280689844172</v>
       </c>
       <c r="Q17" t="n">
         <v>209.0878843858518</v>
       </c>
       <c r="R17" t="n">
-        <v>121.6248620115775</v>
+        <v>121.624862011578</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>35.66787492859458</v>
+        <v>35.66787492859459</v>
       </c>
       <c r="J18" t="n">
-        <v>97.87537501106445</v>
+        <v>44.13743925759465</v>
       </c>
       <c r="K18" t="n">
         <v>167.284605254276</v>
       </c>
       <c r="L18" t="n">
-        <v>171.1968602134187</v>
+        <v>224.9347959668885</v>
       </c>
       <c r="M18" t="n">
         <v>262.4882974044469</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>61.40386490944153</v>
+        <v>61.40386490944152</v>
       </c>
       <c r="K19" t="n">
-        <v>378.4392050642672</v>
+        <v>100.9054125681706</v>
       </c>
       <c r="L19" t="n">
-        <v>144.9140337877032</v>
+        <v>326.7388271047056</v>
       </c>
       <c r="M19" t="n">
         <v>600.2684696097047</v>
       </c>
       <c r="N19" t="n">
-        <v>132.9061666478888</v>
+        <v>579.6322304434893</v>
       </c>
       <c r="O19" t="n">
         <v>546.6686889370469</v>
       </c>
       <c r="P19" t="n">
-        <v>456.0597570114162</v>
+        <v>105.0426923949094</v>
       </c>
       <c r="Q19" t="n">
         <v>72.72611542765389</v>
@@ -36117,16 +36117,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>74.23275281018634</v>
+        <v>74.23275281018631</v>
       </c>
       <c r="J20" t="n">
         <v>164.3326071224429</v>
       </c>
       <c r="K20" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427157</v>
       </c>
       <c r="L20" t="n">
-        <v>305.5469788771547</v>
+        <v>305.5469788771546</v>
       </c>
       <c r="M20" t="n">
         <v>339.9798866008471</v>
@@ -36144,7 +36144,7 @@
         <v>209.0878843858518</v>
       </c>
       <c r="R20" t="n">
-        <v>121.6248620115784</v>
+        <v>121.624862011578</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>35.66787492859457</v>
       </c>
       <c r="J21" t="n">
-        <v>97.87537501106448</v>
+        <v>97.87537501106443</v>
       </c>
       <c r="K21" t="n">
         <v>167.284605254276</v>
       </c>
       <c r="L21" t="n">
-        <v>224.9347959668885</v>
+        <v>224.9347959668884</v>
       </c>
       <c r="M21" t="n">
         <v>262.4882974044469</v>
       </c>
       <c r="N21" t="n">
-        <v>269.435581578437</v>
+        <v>269.4355815784368</v>
       </c>
       <c r="O21" t="n">
-        <v>228.4108578058851</v>
+        <v>246.4809186307605</v>
       </c>
       <c r="P21" t="n">
-        <v>197.8226673428217</v>
+        <v>144.0847315893523</v>
       </c>
       <c r="Q21" t="n">
         <v>132.2392142575563</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>61.40386490944154</v>
+        <v>61.40386490944152</v>
       </c>
       <c r="K22" t="n">
-        <v>378.4392050642672</v>
+        <v>100.9054125681706</v>
       </c>
       <c r="L22" t="n">
-        <v>129.1241875696293</v>
+        <v>326.7388271047058</v>
       </c>
       <c r="M22" t="n">
-        <v>136.1433512451459</v>
+        <v>600.2684696097047</v>
       </c>
       <c r="N22" t="n">
-        <v>579.6322304434893</v>
+        <v>579.6322304434891</v>
       </c>
       <c r="O22" t="n">
         <v>546.6686889370469</v>
       </c>
       <c r="P22" t="n">
-        <v>456.059757011416</v>
+        <v>105.0426923949094</v>
       </c>
       <c r="Q22" t="n">
-        <v>105.9150162146861</v>
+        <v>72.72611542765389</v>
       </c>
       <c r="R22" t="n">
-        <v>17.84785696230656</v>
+        <v>17.84785696230655</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,28 +36354,28 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>74.23275281018634</v>
+        <v>74.23275281018631</v>
       </c>
       <c r="J23" t="n">
         <v>164.3326071224428</v>
       </c>
       <c r="K23" t="n">
-        <v>246.2919792427156</v>
+        <v>246.2919792427158</v>
       </c>
       <c r="L23" t="n">
-        <v>305.5469788771547</v>
+        <v>305.5469788771546</v>
       </c>
       <c r="M23" t="n">
-        <v>339.9798866008473</v>
+        <v>339.9798866008472</v>
       </c>
       <c r="N23" t="n">
-        <v>345.4811166040774</v>
+        <v>345.481116604077</v>
       </c>
       <c r="O23" t="n">
-        <v>326.2280217181578</v>
+        <v>326.2280217181576</v>
       </c>
       <c r="P23" t="n">
-        <v>278.4280689844175</v>
+        <v>278.4280689844172</v>
       </c>
       <c r="Q23" t="n">
         <v>209.0878843858518</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>35.66787492859459</v>
+        <v>35.66787492859458</v>
       </c>
       <c r="J24" t="n">
-        <v>97.87537501106448</v>
+        <v>97.87537501106442</v>
       </c>
       <c r="K24" t="n">
         <v>167.284605254276</v>
       </c>
       <c r="L24" t="n">
-        <v>171.1968602134186</v>
+        <v>224.9347959668884</v>
       </c>
       <c r="M24" t="n">
         <v>262.4882974044469</v>
       </c>
       <c r="N24" t="n">
-        <v>269.435581578437</v>
+        <v>269.4355815784368</v>
       </c>
       <c r="O24" t="n">
         <v>246.4809186307605</v>
       </c>
       <c r="P24" t="n">
-        <v>197.8226673428217</v>
+        <v>144.0847315893523</v>
       </c>
       <c r="Q24" t="n">
         <v>132.2392142575563</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>61.40386490944154</v>
+        <v>61.40386490944152</v>
       </c>
       <c r="K25" t="n">
-        <v>378.4392050642672</v>
+        <v>266.0282538567034</v>
       </c>
       <c r="L25" t="n">
         <v>551.5584115776708</v>
       </c>
       <c r="M25" t="n">
-        <v>136.1433512451461</v>
+        <v>136.1433512451459</v>
       </c>
       <c r="N25" t="n">
-        <v>132.9061666478888</v>
+        <v>132.9061666478885</v>
       </c>
       <c r="O25" t="n">
-        <v>434.2577377294836</v>
+        <v>546.6686889370469</v>
       </c>
       <c r="P25" t="n">
         <v>456.0597570114162</v>
@@ -36539,7 +36539,7 @@
         <v>242.6178072098078</v>
       </c>
       <c r="R25" t="n">
-        <v>17.84785696230656</v>
+        <v>17.84785696230655</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,25 +36591,25 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>74.23275281018635</v>
+        <v>74.23275281018631</v>
       </c>
       <c r="J26" t="n">
-        <v>164.3326071224433</v>
+        <v>164.3326071224429</v>
       </c>
       <c r="K26" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427157</v>
       </c>
       <c r="L26" t="n">
-        <v>305.5469788771547</v>
+        <v>305.5469788771546</v>
       </c>
       <c r="M26" t="n">
-        <v>339.9798866008473</v>
+        <v>339.9798866008471</v>
       </c>
       <c r="N26" t="n">
         <v>345.4811166040772</v>
       </c>
       <c r="O26" t="n">
-        <v>326.2280217181581</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P26" t="n">
         <v>278.4280689844172</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>35.6678749285946</v>
+        <v>35.66787492859457</v>
       </c>
       <c r="J27" t="n">
-        <v>97.87537501106445</v>
+        <v>97.87537501106443</v>
       </c>
       <c r="K27" t="n">
         <v>167.284605254276</v>
       </c>
       <c r="L27" t="n">
-        <v>224.9347959668885</v>
+        <v>224.9347959668884</v>
       </c>
       <c r="M27" t="n">
         <v>262.4882974044469</v>
       </c>
       <c r="N27" t="n">
-        <v>215.6976458249669</v>
+        <v>215.6976458249674</v>
       </c>
       <c r="O27" t="n">
         <v>246.4809186307605</v>
       </c>
       <c r="P27" t="n">
-        <v>197.8226673428219</v>
+        <v>197.8226673428217</v>
       </c>
       <c r="Q27" t="n">
         <v>132.2392142575563</v>
@@ -36755,28 +36755,28 @@
         <v>148.8580923485222</v>
       </c>
       <c r="K28" t="n">
-        <v>378.4392050642671</v>
+        <v>211.0658246641665</v>
       </c>
       <c r="L28" t="n">
-        <v>551.5584115776708</v>
+        <v>129.1241875696293</v>
       </c>
       <c r="M28" t="n">
-        <v>136.1433512451461</v>
+        <v>600.2684696097047</v>
       </c>
       <c r="N28" t="n">
-        <v>132.9061666478888</v>
+        <v>579.6322304434891</v>
       </c>
       <c r="O28" t="n">
-        <v>346.8035102904039</v>
+        <v>546.6686889370469</v>
       </c>
       <c r="P28" t="n">
-        <v>456.0597570114162</v>
+        <v>105.0426923949094</v>
       </c>
       <c r="Q28" t="n">
-        <v>242.6178072098078</v>
+        <v>72.72611542765389</v>
       </c>
       <c r="R28" t="n">
-        <v>17.84785696230657</v>
+        <v>17.84785696230655</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,28 +36828,28 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>74.23275281018634</v>
+        <v>74.23275281018631</v>
       </c>
       <c r="J29" t="n">
-        <v>164.3326071224428</v>
+        <v>164.3326071224433</v>
       </c>
       <c r="K29" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427156</v>
       </c>
       <c r="L29" t="n">
         <v>305.5469788771546</v>
       </c>
       <c r="M29" t="n">
-        <v>339.9798866008472</v>
+        <v>339.979886600847</v>
       </c>
       <c r="N29" t="n">
         <v>345.4811166040772</v>
       </c>
       <c r="O29" t="n">
-        <v>326.2280217181581</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P29" t="n">
-        <v>278.4280689844175</v>
+        <v>278.4280689844172</v>
       </c>
       <c r="Q29" t="n">
         <v>209.0878843858518</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>35.66787492859459</v>
+        <v>35.66787492859457</v>
       </c>
       <c r="J30" t="n">
-        <v>97.87537501106446</v>
+        <v>97.87537501106443</v>
       </c>
       <c r="K30" t="n">
         <v>167.284605254276</v>
       </c>
       <c r="L30" t="n">
-        <v>224.9347959668885</v>
+        <v>224.9347959668884</v>
       </c>
       <c r="M30" t="n">
         <v>262.4882974044469</v>
       </c>
       <c r="N30" t="n">
-        <v>269.435581578437</v>
+        <v>269.4355815784368</v>
       </c>
       <c r="O30" t="n">
         <v>246.4809186307605</v>
       </c>
       <c r="P30" t="n">
-        <v>197.8226673428219</v>
+        <v>144.0847315893523</v>
       </c>
       <c r="Q30" t="n">
         <v>132.2392142575563</v>
       </c>
       <c r="R30" t="n">
-        <v>10.58237475470628</v>
+        <v>64.32031050817636</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>148.8580923485222</v>
+        <v>61.40386490944152</v>
       </c>
       <c r="K31" t="n">
-        <v>100.9054125681706</v>
+        <v>378.4392050642672</v>
       </c>
       <c r="L31" t="n">
         <v>129.1241875696293</v>
       </c>
       <c r="M31" t="n">
-        <v>600.2684696097045</v>
+        <v>600.2684696097047</v>
       </c>
       <c r="N31" t="n">
-        <v>579.6322304434893</v>
+        <v>579.6322304434889</v>
       </c>
       <c r="O31" t="n">
-        <v>135.9203446343829</v>
+        <v>466.7495359760271</v>
       </c>
       <c r="P31" t="n">
-        <v>456.0597570114162</v>
+        <v>105.0426923949094</v>
       </c>
       <c r="Q31" t="n">
-        <v>242.6178072098078</v>
+        <v>72.72611542765389</v>
       </c>
       <c r="R31" t="n">
-        <v>17.84785696230656</v>
+        <v>17.84785696230655</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,19 +37065,19 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>74.23275281018634</v>
+        <v>74.23275281018631</v>
       </c>
       <c r="J32" t="n">
-        <v>164.3326071224429</v>
+        <v>164.3326071224428</v>
       </c>
       <c r="K32" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427157</v>
       </c>
       <c r="L32" t="n">
-        <v>305.5469788771547</v>
+        <v>305.5469788771546</v>
       </c>
       <c r="M32" t="n">
-        <v>339.9798866008472</v>
+        <v>339.9798866008471</v>
       </c>
       <c r="N32" t="n">
         <v>345.4811166040772</v>
@@ -37086,7 +37086,7 @@
         <v>326.2280217181578</v>
       </c>
       <c r="P32" t="n">
-        <v>278.4280689844175</v>
+        <v>278.4280689844172</v>
       </c>
       <c r="Q32" t="n">
         <v>209.0878843858518</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>35.66787492859459</v>
+        <v>35.66787492859457</v>
       </c>
       <c r="J33" t="n">
-        <v>44.13743925759461</v>
+        <v>44.13743925759498</v>
       </c>
       <c r="K33" t="n">
         <v>167.284605254276</v>
       </c>
       <c r="L33" t="n">
-        <v>224.9347959668885</v>
+        <v>224.9347959668884</v>
       </c>
       <c r="M33" t="n">
-        <v>262.4882974044469</v>
+        <v>262.4882974044468</v>
       </c>
       <c r="N33" t="n">
-        <v>269.435581578437</v>
+        <v>269.4355815784369</v>
       </c>
       <c r="O33" t="n">
         <v>246.4809186307605</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>61.40386490944154</v>
+        <v>61.40386490944152</v>
       </c>
       <c r="K34" t="n">
-        <v>378.4392050642672</v>
+        <v>266.0282538567043</v>
       </c>
       <c r="L34" t="n">
-        <v>129.1241875696293</v>
+        <v>551.5584115776708</v>
       </c>
       <c r="M34" t="n">
-        <v>600.2684696097048</v>
+        <v>136.1433512451459</v>
       </c>
       <c r="N34" t="n">
-        <v>572.6043454172568</v>
+        <v>132.9061666478885</v>
       </c>
       <c r="O34" t="n">
-        <v>122.7603563857526</v>
+        <v>546.6686889370469</v>
       </c>
       <c r="P34" t="n">
         <v>456.0597570114162</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.72611542765435</v>
+        <v>242.6178072098078</v>
       </c>
       <c r="R34" t="n">
-        <v>17.84785696230656</v>
+        <v>17.84785696230655</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,28 +37302,28 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>74.23275281018634</v>
+        <v>74.23275281018631</v>
       </c>
       <c r="J35" t="n">
         <v>164.3326071224428</v>
       </c>
       <c r="K35" t="n">
-        <v>246.2919792427156</v>
+        <v>246.2919792427157</v>
       </c>
       <c r="L35" t="n">
         <v>305.5469788771547</v>
       </c>
       <c r="M35" t="n">
-        <v>339.9798866008473</v>
+        <v>339.979886600847</v>
       </c>
       <c r="N35" t="n">
-        <v>345.4811166040774</v>
+        <v>345.481116604077</v>
       </c>
       <c r="O35" t="n">
         <v>326.2280217181578</v>
       </c>
       <c r="P35" t="n">
-        <v>278.4280689844175</v>
+        <v>278.4280689844172</v>
       </c>
       <c r="Q35" t="n">
         <v>209.0878843858518</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>35.66787492859458</v>
       </c>
       <c r="J36" t="n">
-        <v>97.87537501106448</v>
+        <v>97.87537501106442</v>
       </c>
       <c r="K36" t="n">
-        <v>149.2145444294007</v>
+        <v>167.284605254276</v>
       </c>
       <c r="L36" t="n">
-        <v>224.9347959668885</v>
+        <v>224.9347959668884</v>
       </c>
       <c r="M36" t="n">
         <v>262.4882974044469</v>
       </c>
       <c r="N36" t="n">
-        <v>269.435581578437</v>
+        <v>269.4355815784368</v>
       </c>
       <c r="O36" t="n">
         <v>246.4809186307605</v>
@@ -37405,10 +37405,10 @@
         <v>197.8226673428217</v>
       </c>
       <c r="Q36" t="n">
-        <v>132.2392142575563</v>
+        <v>132.2392142575561</v>
       </c>
       <c r="R36" t="n">
-        <v>64.32031050817636</v>
+        <v>10.58237475470719</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>148.8580923485222</v>
+        <v>61.40386490944152</v>
       </c>
       <c r="K37" t="n">
-        <v>378.4392050642671</v>
+        <v>100.9054125681706</v>
       </c>
       <c r="L37" t="n">
-        <v>551.5584115776708</v>
+        <v>129.1241875696293</v>
       </c>
       <c r="M37" t="n">
-        <v>136.1433512451461</v>
+        <v>446.8660445282734</v>
       </c>
       <c r="N37" t="n">
-        <v>284.0580526177521</v>
+        <v>579.6322304434892</v>
       </c>
       <c r="O37" t="n">
         <v>546.6686889370469</v>
       </c>
       <c r="P37" t="n">
-        <v>105.0426923949094</v>
+        <v>456.0597570114162</v>
       </c>
       <c r="Q37" t="n">
-        <v>242.6178072098078</v>
+        <v>72.72611542765389</v>
       </c>
       <c r="R37" t="n">
-        <v>17.84785696230656</v>
+        <v>17.84785696230655</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,28 +37539,28 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>74.23275281018634</v>
+        <v>74.23275281018631</v>
       </c>
       <c r="J38" t="n">
-        <v>164.3326071224428</v>
+        <v>164.3326071224429</v>
       </c>
       <c r="K38" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427156</v>
       </c>
       <c r="L38" t="n">
         <v>305.5469788771546</v>
       </c>
       <c r="M38" t="n">
-        <v>339.9798866008472</v>
+        <v>339.9798866008471</v>
       </c>
       <c r="N38" t="n">
         <v>345.4811166040772</v>
       </c>
       <c r="O38" t="n">
-        <v>326.2280217181581</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P38" t="n">
-        <v>278.4280689844175</v>
+        <v>278.4280689844172</v>
       </c>
       <c r="Q38" t="n">
         <v>209.0878843858518</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>35.66787492859457</v>
       </c>
       <c r="J39" t="n">
-        <v>97.87537501106446</v>
+        <v>97.87537501106443</v>
       </c>
       <c r="K39" t="n">
         <v>167.284605254276</v>
       </c>
       <c r="L39" t="n">
-        <v>224.9347959668885</v>
+        <v>224.9347959668884</v>
       </c>
       <c r="M39" t="n">
         <v>262.4882974044469</v>
       </c>
       <c r="N39" t="n">
-        <v>269.435581578437</v>
+        <v>269.4355815784368</v>
       </c>
       <c r="O39" t="n">
-        <v>228.4108578058851</v>
+        <v>246.4809186307605</v>
       </c>
       <c r="P39" t="n">
         <v>197.8226673428217</v>
       </c>
       <c r="Q39" t="n">
-        <v>132.2392142575563</v>
+        <v>132.2392142575561</v>
       </c>
       <c r="R39" t="n">
-        <v>64.32031050817636</v>
+        <v>10.58237475470719</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,28 +37703,28 @@
         <v>148.8580923485222</v>
       </c>
       <c r="K40" t="n">
-        <v>378.4392050642671</v>
+        <v>178.5740264176236</v>
       </c>
       <c r="L40" t="n">
         <v>551.5584115776708</v>
       </c>
       <c r="M40" t="n">
-        <v>264.4775059707035</v>
+        <v>136.1433512451459</v>
       </c>
       <c r="N40" t="n">
-        <v>579.6322304434893</v>
+        <v>132.9061666478885</v>
       </c>
       <c r="O40" t="n">
-        <v>122.7603563857526</v>
+        <v>546.6686889370469</v>
       </c>
       <c r="P40" t="n">
-        <v>105.0426923949094</v>
+        <v>456.0597570114162</v>
       </c>
       <c r="Q40" t="n">
         <v>242.6178072098078</v>
       </c>
       <c r="R40" t="n">
-        <v>17.84785696230656</v>
+        <v>17.84785696230655</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,28 +37776,28 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>74.23275281018634</v>
+        <v>74.23275281018631</v>
       </c>
       <c r="J41" t="n">
-        <v>164.3326071224431</v>
+        <v>164.3326071224429</v>
       </c>
       <c r="K41" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427157</v>
       </c>
       <c r="L41" t="n">
-        <v>305.5469788771547</v>
+        <v>305.5469788771546</v>
       </c>
       <c r="M41" t="n">
         <v>339.9798866008471</v>
       </c>
       <c r="N41" t="n">
-        <v>345.4811166040774</v>
+        <v>345.4811166040772</v>
       </c>
       <c r="O41" t="n">
         <v>326.2280217181578</v>
       </c>
       <c r="P41" t="n">
-        <v>278.4280689844175</v>
+        <v>278.4280689844172</v>
       </c>
       <c r="Q41" t="n">
         <v>209.0878843858518</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>35.66787492859464</v>
+        <v>35.66787492859457</v>
       </c>
       <c r="J42" t="n">
-        <v>97.87537501106442</v>
+        <v>44.13743925759498</v>
       </c>
       <c r="K42" t="n">
         <v>167.284605254276</v>
       </c>
       <c r="L42" t="n">
-        <v>224.9347959668885</v>
+        <v>224.9347959668884</v>
       </c>
       <c r="M42" t="n">
-        <v>208.7503616509769</v>
+        <v>262.4882974044468</v>
       </c>
       <c r="N42" t="n">
-        <v>269.435581578437</v>
+        <v>269.4355815784369</v>
       </c>
       <c r="O42" t="n">
         <v>246.4809186307605</v>
@@ -37882,7 +37882,7 @@
         <v>132.2392142575563</v>
       </c>
       <c r="R42" t="n">
-        <v>64.32031050817659</v>
+        <v>64.32031050817636</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,28 +37940,28 @@
         <v>148.8580923485222</v>
       </c>
       <c r="K43" t="n">
-        <v>100.9054125681706</v>
+        <v>211.0658246641665</v>
       </c>
       <c r="L43" t="n">
-        <v>352.3926534136772</v>
+        <v>129.1241875696293</v>
       </c>
       <c r="M43" t="n">
-        <v>136.1433512451461</v>
+        <v>600.2684696097047</v>
       </c>
       <c r="N43" t="n">
-        <v>579.6322304434893</v>
+        <v>579.6322304434891</v>
       </c>
       <c r="O43" t="n">
         <v>546.6686889370469</v>
       </c>
       <c r="P43" t="n">
-        <v>456.0597570114162</v>
+        <v>105.0426923949094</v>
       </c>
       <c r="Q43" t="n">
         <v>72.72611542765389</v>
       </c>
       <c r="R43" t="n">
-        <v>17.84785696230656</v>
+        <v>17.84785696230655</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,28 +38013,28 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>74.23275281018635</v>
+        <v>74.23275281018631</v>
       </c>
       <c r="J44" t="n">
         <v>164.3326071224433</v>
       </c>
       <c r="K44" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427157</v>
       </c>
       <c r="L44" t="n">
-        <v>305.5469788771547</v>
+        <v>305.5469788771546</v>
       </c>
       <c r="M44" t="n">
-        <v>339.9798866008471</v>
+        <v>339.9798866008468</v>
       </c>
       <c r="N44" t="n">
-        <v>345.4811166040772</v>
+        <v>345.481116604077</v>
       </c>
       <c r="O44" t="n">
         <v>326.2280217181581</v>
       </c>
       <c r="P44" t="n">
-        <v>278.4280689844175</v>
+        <v>278.4280689844172</v>
       </c>
       <c r="Q44" t="n">
         <v>209.0878843858518</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>35.6678749285946</v>
+        <v>35.66787492859457</v>
       </c>
       <c r="J45" t="n">
-        <v>44.13743925759428</v>
+        <v>97.87537501106443</v>
       </c>
       <c r="K45" t="n">
         <v>167.284605254276</v>
       </c>
       <c r="L45" t="n">
-        <v>224.9347959668885</v>
+        <v>224.9347959668884</v>
       </c>
       <c r="M45" t="n">
         <v>262.4882974044469</v>
       </c>
       <c r="N45" t="n">
-        <v>269.435581578437</v>
+        <v>269.4355815784368</v>
       </c>
       <c r="O45" t="n">
         <v>246.4809186307605</v>
       </c>
       <c r="P45" t="n">
-        <v>197.8226673428219</v>
+        <v>197.8226673428217</v>
       </c>
       <c r="Q45" t="n">
-        <v>132.2392142575563</v>
+        <v>132.2392142575561</v>
       </c>
       <c r="R45" t="n">
-        <v>64.32031050817636</v>
+        <v>10.58237475470719</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>148.8580923485222</v>
+        <v>61.40386490944152</v>
       </c>
       <c r="K46" t="n">
-        <v>378.4392050642671</v>
+        <v>100.9054125681706</v>
       </c>
       <c r="L46" t="n">
-        <v>129.1241875696294</v>
+        <v>326.7388271047058</v>
       </c>
       <c r="M46" t="n">
         <v>600.2684696097047</v>
       </c>
       <c r="N46" t="n">
-        <v>579.6322304434893</v>
+        <v>579.6322304434891</v>
       </c>
       <c r="O46" t="n">
-        <v>122.7603563857526</v>
+        <v>546.6686889370469</v>
       </c>
       <c r="P46" t="n">
-        <v>191.6859527639497</v>
+        <v>105.0426923949094</v>
       </c>
       <c r="Q46" t="n">
-        <v>242.6178072098078</v>
+        <v>72.72611542765389</v>
       </c>
       <c r="R46" t="n">
-        <v>17.84785696230657</v>
+        <v>17.84785696230655</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
